--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_SOx.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.002877997559112018</v>
+        <v>0.005531959380089568</v>
       </c>
       <c r="C2">
-        <v>0.000229625</v>
+        <v>0.0004413749999999999</v>
       </c>
       <c r="D2">
-        <v>7.989293960943045E-05</v>
+        <v>0.000153566668351061</v>
       </c>
       <c r="E2">
-        <v>2.673421187973017E-05</v>
+        <v>5.138731744546936E-05</v>
       </c>
       <c r="F2">
-        <v>0.0003851207978781268</v>
+        <v>0.0007402621324483756</v>
       </c>
       <c r="G2">
-        <v>0.0001589962952062942</v>
+        <v>0.0003056156333007213</v>
       </c>
       <c r="H2">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I2">
-        <v>0.003763696462201395</v>
+        <v>0.007234410565069748</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.002858630146197402</v>
+        <v>0.005494732197181835</v>
       </c>
       <c r="C3">
-        <v>0.00020875</v>
+        <v>0.00040125</v>
       </c>
       <c r="D3">
-        <v>0.0001686628725087976</v>
+        <v>0.0003241962998522397</v>
       </c>
       <c r="E3">
-        <v>2.673421187973017E-05</v>
+        <v>5.138731744546936E-05</v>
       </c>
       <c r="F3">
-        <v>0.0003117644554251503</v>
+        <v>0.0005992598215058275</v>
       </c>
       <c r="G3">
-        <v>0.0001366810257036565</v>
+        <v>0.0002627222110830762</v>
       </c>
       <c r="H3">
-        <v>7.994487773693461E-06</v>
+        <v>1.536665015182995E-05</v>
       </c>
       <c r="I3">
-        <v>0.00371921719948843</v>
+        <v>0.007148914497220277</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.00302906337984603</v>
+        <v>0.005822331406769909</v>
       </c>
       <c r="C4">
-        <v>0.0004175000000000001</v>
+        <v>0.0008025</v>
       </c>
       <c r="D4">
-        <v>0.0001331548993490508</v>
+        <v>0.0002559444472517682</v>
       </c>
       <c r="E4">
-        <v>3.341776484966272E-05</v>
+        <v>6.42341468068367E-05</v>
       </c>
       <c r="F4">
-        <v>0.0002824219184439595</v>
+        <v>0.000542858897128809</v>
       </c>
       <c r="G4">
-        <v>0.0001255233909523375</v>
+        <v>0.0002412754999742537</v>
       </c>
       <c r="H4">
-        <v>1.865380480528475E-05</v>
+        <v>3.585551702093655E-05</v>
       </c>
       <c r="I4">
-        <v>0.004039735158246325</v>
+        <v>0.007764999914952513</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>0.003978066612662239</v>
+        <v>0.007646463369248977</v>
       </c>
       <c r="C5">
-        <v>0.000146125</v>
+        <v>0.000280875</v>
       </c>
       <c r="D5">
-        <v>0.0002174863356034495</v>
+        <v>0.000418042597177888</v>
       </c>
       <c r="E5">
-        <v>4.67848707895278E-05</v>
+        <v>8.99278055295714E-05</v>
       </c>
       <c r="F5">
-        <v>0.0002934253698119062</v>
+        <v>0.000564009243770191</v>
       </c>
       <c r="G5">
-        <v>7.252462588357279E-05</v>
+        <v>0.0001394036222073465</v>
       </c>
       <c r="H5">
-        <v>7.994487773693461E-06</v>
+        <v>1.536665015182995E-05</v>
       </c>
       <c r="I5">
-        <v>0.004762407302524389</v>
+        <v>0.009154088288085803</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>0.00514785835270508</v>
+        <v>0.009894985216876234</v>
       </c>
       <c r="C6">
-        <v>0.000104375</v>
+        <v>0.000200625</v>
       </c>
       <c r="D6">
-        <v>0.000186416859088671</v>
+        <v>0.0003583222261524755</v>
       </c>
       <c r="E6">
-        <v>5.569627474943783E-05</v>
+        <v>0.0001070569113447278</v>
       </c>
       <c r="F6">
-        <v>0.0002457437472174715</v>
+        <v>0.0004723577416575349</v>
       </c>
       <c r="G6">
-        <v>7.810344325923231E-05</v>
+        <v>0.0001501269777617578</v>
       </c>
       <c r="H6">
-        <v>7.994487773693461E-06</v>
+        <v>1.536665015182995E-05</v>
       </c>
       <c r="I6">
-        <v>0.005826188164793586</v>
+        <v>0.01119884072394456</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>0.004365414870954567</v>
+        <v>0.008391007027403691</v>
       </c>
       <c r="C7">
-        <v>0.000104375</v>
+        <v>0.000200625</v>
       </c>
       <c r="D7">
-        <v>0.0001109624161242089</v>
+        <v>0.0002132870393764735</v>
       </c>
       <c r="E7">
-        <v>6.906338068930293E-05</v>
+        <v>0.0001327505700674625</v>
       </c>
       <c r="F7">
-        <v>0.0001723874047644948</v>
+        <v>0.0003313554307149869</v>
       </c>
       <c r="G7">
-        <v>7.252462588357279E-05</v>
+        <v>0.0001394036222073465</v>
       </c>
       <c r="H7">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I7">
-        <v>0.004908051844705636</v>
+        <v>0.009434039773356342</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.003091039101172801</v>
+        <v>0.005941458392074664</v>
       </c>
       <c r="C8">
-        <v>0.0002505</v>
+        <v>0.0004815</v>
       </c>
       <c r="D8">
-        <v>7.545444296446205E-05</v>
+        <v>0.0001450351867760019</v>
       </c>
       <c r="E8">
-        <v>4.232916880957276E-05</v>
+        <v>8.136325262199315E-05</v>
       </c>
       <c r="F8">
-        <v>9.90310623115183E-05</v>
+        <v>0.0001903531197724393</v>
       </c>
       <c r="G8">
-        <v>0.0001199445735766781</v>
+        <v>0.0002305521444198423</v>
       </c>
       <c r="H8">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I8">
-        <v>0.003683628007350828</v>
+        <v>0.007080506529099494</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.001921247361129962</v>
+        <v>0.003692936544447411</v>
       </c>
       <c r="C9">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D9">
-        <v>7.989293960943045E-05</v>
+        <v>0.000153566668351061</v>
       </c>
       <c r="E9">
-        <v>6.460767870934791E-05</v>
+        <v>0.0001241860171598843</v>
       </c>
       <c r="F9">
-        <v>0.0001026988794341671</v>
+        <v>0.0001974032353195668</v>
       </c>
       <c r="G9">
-        <v>0.0001283127996401673</v>
+        <v>0.0002466371777514592</v>
       </c>
       <c r="H9">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I9">
-        <v>0.002424674487780972</v>
+        <v>0.004660601859746658</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.001561013480918094</v>
+        <v>0.003000510942363521</v>
       </c>
       <c r="C10">
-        <v>0.000229625</v>
+        <v>0.0004413749999999999</v>
       </c>
       <c r="D10">
-        <v>3.550797315974688E-05</v>
+        <v>6.825185260047145E-05</v>
       </c>
       <c r="E10">
-        <v>1.782280791982011E-05</v>
+        <v>3.42582116303129E-05</v>
       </c>
       <c r="F10">
-        <v>6.235289108503005E-05</v>
+        <v>0.0001198519643011656</v>
       </c>
       <c r="G10">
-        <v>7.810344325923231E-05</v>
+        <v>0.0001501269777617578</v>
       </c>
       <c r="I10">
-        <v>0.001984425596341923</v>
+        <v>0.003814374948657229</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.001026472884474677</v>
+        <v>0.001973040694110007</v>
       </c>
       <c r="C11">
-        <v>6.262499999999999E-05</v>
+        <v>0.000120375</v>
       </c>
       <c r="D11">
-        <v>1.331548993490507E-05</v>
+        <v>2.559444472517682E-05</v>
       </c>
       <c r="E11">
-        <v>2.896206286970768E-05</v>
+        <v>5.566959389925846E-05</v>
       </c>
       <c r="F11">
-        <v>4.401380547178594E-05</v>
+        <v>8.460138656552861E-05</v>
       </c>
       <c r="G11">
-        <v>8.368226063489176E-05</v>
+        <v>0.0001608503333161691</v>
       </c>
       <c r="I11">
-        <v>0.001259071503385967</v>
+        <v>0.00242013145261614</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.0005810223874384962</v>
+        <v>0.00111681548723208</v>
       </c>
       <c r="C12">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D12">
-        <v>8.876993289936721E-06</v>
+        <v>1.706296315011786E-05</v>
       </c>
       <c r="E12">
-        <v>1.782280791982011E-05</v>
+        <v>3.42582116303129E-05</v>
       </c>
       <c r="F12">
-        <v>2.200690273589297E-05</v>
+        <v>4.23006932827643E-05</v>
       </c>
       <c r="G12">
-        <v>2.510467819046752E-05</v>
+        <v>4.825509999485072E-05</v>
       </c>
       <c r="H12">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I12">
-        <v>0.0008453735988325113</v>
+        <v>0.001624939672007403</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.0003524869150460211</v>
+        <v>0.0006775347289207952</v>
       </c>
       <c r="C13">
-        <v>8.35E-05</v>
+        <v>0.0001605</v>
       </c>
       <c r="D13">
-        <v>8.876993289936721E-06</v>
+        <v>1.706296315011786E-05</v>
       </c>
       <c r="E13">
-        <v>1.113925494988757E-05</v>
+        <v>2.141138226894557E-05</v>
       </c>
       <c r="F13">
-        <v>2.200690273589297E-05</v>
+        <v>4.23006932827643E-05</v>
       </c>
       <c r="G13">
-        <v>2.231526950263779E-05</v>
+        <v>4.289342221764508E-05</v>
       </c>
       <c r="I13">
-        <v>0.0005003253355243761</v>
+        <v>0.000961703189840268</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.0002052945768949354</v>
+        <v>0.0003946081388220016</v>
       </c>
       <c r="C14">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D14">
-        <v>1.331548993490507E-05</v>
+        <v>2.559444472517682E-05</v>
       </c>
       <c r="E14">
-        <v>8.911403959910054E-06</v>
+        <v>1.712910581515645E-05</v>
       </c>
       <c r="F14">
-        <v>3.301035410383944E-05</v>
+        <v>6.345103992414651E-05</v>
       </c>
       <c r="G14">
-        <v>4.184113031744588E-05</v>
+        <v>8.042516665808455E-05</v>
       </c>
       <c r="I14">
-        <v>0.0004276229552110358</v>
+        <v>0.0008219578959445659</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>9.683706457308276E-05</v>
+        <v>0.00018613591453868</v>
       </c>
       <c r="C15">
-        <v>0.000104375</v>
+        <v>0.000200625</v>
       </c>
       <c r="D15">
-        <v>1.331548993490507E-05</v>
+        <v>2.559444472517682E-05</v>
       </c>
       <c r="E15">
-        <v>2.227850989977514E-06</v>
+        <v>4.282276453789113E-06</v>
       </c>
       <c r="F15">
-        <v>3.301035410383944E-05</v>
+        <v>6.345103992414651E-05</v>
       </c>
       <c r="G15">
-        <v>1.952586081480808E-05</v>
+        <v>3.753174444043945E-05</v>
       </c>
       <c r="I15">
-        <v>0.0002692916204166128</v>
+        <v>0.0005176204200822319</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>5.422875616092632E-05</v>
+        <v>0.0001042361121416608</v>
       </c>
       <c r="C16">
-        <v>6.262499999999999E-05</v>
+        <v>0.000120375</v>
       </c>
       <c r="D16">
-        <v>4.43849664496836E-06</v>
+        <v>8.531481575058931E-06</v>
       </c>
       <c r="F16">
-        <v>1.100345136794648E-05</v>
+        <v>2.115034664138215E-05</v>
       </c>
       <c r="G16">
-        <v>3.347290425395667E-05</v>
+        <v>6.434013332646763E-05</v>
       </c>
       <c r="I16">
-        <v>0.0001657686084277978</v>
+        <v>0.0003186330736845695</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.0002633968156387849</v>
+        <v>0.0005062896875452094</v>
       </c>
       <c r="D17">
-        <v>8.876993289936721E-06</v>
+        <v>1.706296315011786E-05</v>
       </c>
       <c r="E17">
-        <v>8.911403959910054E-06</v>
+        <v>1.712910581515645E-05</v>
       </c>
       <c r="F17">
-        <v>2.934253698119061E-05</v>
+        <v>5.640092437701908E-05</v>
       </c>
       <c r="G17">
-        <v>6.973521719574305E-05</v>
+        <v>0.0001340419444301409</v>
       </c>
       <c r="I17">
-        <v>0.0003802629670655653</v>
+        <v>0.0007309246253176438</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.0006352511435994224</v>
+        <v>0.001221051599373741</v>
       </c>
       <c r="C18">
-        <v>8.35E-05</v>
+        <v>0.0001605</v>
       </c>
       <c r="D18">
-        <v>1.775398657987344E-05</v>
+        <v>3.412592630023572E-05</v>
       </c>
       <c r="E18">
-        <v>2.673421187973017E-05</v>
+        <v>5.138731744546936E-05</v>
       </c>
       <c r="F18">
-        <v>9.536324518886948E-05</v>
+        <v>0.000183303004225312</v>
       </c>
       <c r="G18">
-        <v>0.0001562068865184646</v>
+        <v>0.0003002539555235156</v>
       </c>
       <c r="I18">
-        <v>0.00101480947376636</v>
+        <v>0.001950621802868274</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.002006463977954274</v>
+        <v>0.003856736149241448</v>
       </c>
       <c r="C19">
-        <v>6.262499999999999E-05</v>
+        <v>0.000120375</v>
       </c>
       <c r="D19">
-        <v>4.438496644968357E-05</v>
+        <v>8.531481575058936E-05</v>
       </c>
       <c r="E19">
-        <v>9.356974157905561E-05</v>
+        <v>0.0001798556110591428</v>
       </c>
       <c r="F19">
-        <v>0.000190726490377739</v>
+        <v>0.0003666060084506239</v>
       </c>
       <c r="G19">
-        <v>0.000223152695026378</v>
+        <v>0.0004289342221764509</v>
       </c>
       <c r="H19">
-        <v>7.994487773693461E-06</v>
+        <v>1.536665015182995E-05</v>
       </c>
       <c r="I19">
-        <v>0.002628917359160823</v>
+        <v>0.005053188456830084</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>0.004051662781737784</v>
+        <v>0.007787926664298369</v>
       </c>
       <c r="C20">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D20">
-        <v>0.0001464703892839558</v>
+        <v>0.0002815388919769449</v>
       </c>
       <c r="E20">
-        <v>7.797478464921299E-05</v>
+        <v>0.000149879675882619</v>
       </c>
       <c r="F20">
-        <v>0.000315432272547799</v>
+        <v>0.0006063099370529551</v>
       </c>
       <c r="G20">
-        <v>0.000161785703894124</v>
+        <v>0.0003109773110779269</v>
       </c>
       <c r="H20">
-        <v>1.598897554738692E-05</v>
+        <v>3.073330030365989E-05</v>
       </c>
       <c r="I20">
-        <v>0.004894564907660263</v>
+        <v>0.009408115780592476</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>0.004450631487778882</v>
+        <v>0.00855480663219773</v>
       </c>
       <c r="C21">
-        <v>0.000229625</v>
+        <v>0.0004413749999999999</v>
       </c>
       <c r="D21">
-        <v>8.876993289936715E-05</v>
+        <v>0.0001706296315011787</v>
       </c>
       <c r="E21">
-        <v>5.792412573941536E-05</v>
+        <v>0.0001113391877985169</v>
       </c>
       <c r="F21">
-        <v>0.000275086284198662</v>
+        <v>0.0005287586660345538</v>
       </c>
       <c r="G21">
-        <v>0.0001506280691428051</v>
+        <v>0.0002895305999691044</v>
       </c>
       <c r="H21">
-        <v>1.598897554738692E-05</v>
+        <v>3.073330030365989E-05</v>
       </c>
       <c r="I21">
-        <v>0.005268653875306518</v>
+        <v>0.01012717301780474</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.003478387359465132</v>
+        <v>0.006686002050229386</v>
       </c>
       <c r="C22">
-        <v>0.000146125</v>
+        <v>0.000280875</v>
       </c>
       <c r="D22">
-        <v>0.0001242779060591141</v>
+        <v>0.0002388814841016502</v>
       </c>
       <c r="E22">
-        <v>5.792412573941536E-05</v>
+        <v>0.0001113391877985169</v>
       </c>
       <c r="F22">
-        <v>0.0003227679067930968</v>
+        <v>0.00062041016814721</v>
       </c>
       <c r="G22">
-        <v>0.0001896797907724212</v>
+        <v>0.0003645940888499833</v>
       </c>
       <c r="H22">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I22">
-        <v>0.004332486235118668</v>
+        <v>0.008327713062713129</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.002451914474990454</v>
+        <v>0.004712961356119377</v>
       </c>
       <c r="C23">
-        <v>0.000354875</v>
+        <v>0.0006821249999999999</v>
       </c>
       <c r="D23">
-        <v>0.0001020854228342723</v>
+        <v>0.0001962240762263555</v>
       </c>
       <c r="E23">
-        <v>2.227850989977514E-05</v>
+        <v>4.282276453789114E-05</v>
       </c>
       <c r="F23">
-        <v>0.0003961242492460732</v>
+        <v>0.0007614124790897574</v>
       </c>
       <c r="G23">
-        <v>0.0001868903820845914</v>
+        <v>0.0003592324110727777</v>
       </c>
       <c r="H23">
-        <v>1.598897554738692E-05</v>
+        <v>3.073330030365989E-05</v>
       </c>
       <c r="I23">
-        <v>0.003530157014602554</v>
+        <v>0.006785511387349818</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.002498396265985535</v>
+        <v>0.004802306595097942</v>
       </c>
       <c r="C24">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D24">
-        <v>0.0001198394094141457</v>
+        <v>0.0002303500025265914</v>
       </c>
       <c r="E24">
-        <v>3.341776484966272E-05</v>
+        <v>6.42341468068367E-05</v>
       </c>
       <c r="F24">
-        <v>0.0003667817122648827</v>
+        <v>0.0007050115547127386</v>
       </c>
       <c r="G24">
-        <v>0.0001673645212697835</v>
+        <v>0.0003217006666323382</v>
       </c>
       <c r="H24">
-        <v>7.994487773693461E-06</v>
+        <v>1.536665015182995E-05</v>
       </c>
       <c r="I24">
-        <v>0.003319044161557703</v>
+        <v>0.006379719615928277</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.002351203927834449</v>
+        <v>0.004519380004999149</v>
       </c>
       <c r="C25">
-        <v>0.000271375</v>
+        <v>0.0005216249999999998</v>
       </c>
       <c r="D25">
-        <v>7.989293960943045E-05</v>
+        <v>0.000153566668351061</v>
       </c>
       <c r="E25">
-        <v>2.896206286970768E-05</v>
+        <v>5.566959389925846E-05</v>
       </c>
       <c r="F25">
-        <v>0.000231072478726876</v>
+        <v>0.0004441572794690253</v>
       </c>
       <c r="G25">
-        <v>0.0001227339822645079</v>
+        <v>0.0002359138221970479</v>
       </c>
       <c r="H25">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I25">
-        <v>0.003090570049820766</v>
+        <v>0.005940556802350095</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.002719184773212163</v>
+        <v>0.005226696480246134</v>
       </c>
       <c r="C26">
-        <v>0.000146125</v>
+        <v>0.000280875</v>
       </c>
       <c r="D26">
-        <v>0.0001242779060591141</v>
+        <v>0.0002388814841016502</v>
       </c>
       <c r="E26">
-        <v>2.450636088975266E-05</v>
+        <v>4.710504099168023E-05</v>
       </c>
       <c r="F26">
-        <v>0.0003594460780195849</v>
+        <v>0.0006909113236184841</v>
       </c>
       <c r="G26">
-        <v>0.0001366810257036565</v>
+        <v>0.0002627222110830762</v>
       </c>
       <c r="H26">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I26">
-        <v>0.00352354529017376</v>
+        <v>0.006772802623627408</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.00263396815638785</v>
+        <v>0.005062896875452096</v>
       </c>
       <c r="C27">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D27">
-        <v>9.764692618930389E-05</v>
+        <v>0.0001876925946512966</v>
       </c>
       <c r="E27">
-        <v>2.227850989977514E-05</v>
+        <v>4.282276453789114E-05</v>
       </c>
       <c r="F27">
-        <v>0.0002200690273589296</v>
+        <v>0.000423006932827643</v>
       </c>
       <c r="G27">
-        <v>0.0001478386604549753</v>
+        <v>0.0002841689221918988</v>
       </c>
       <c r="H27">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I27">
-        <v>0.00329413093880663</v>
+        <v>0.006331832523095379</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.002905111937192482</v>
+        <v>0.005584077436160398</v>
       </c>
       <c r="C28">
-        <v>0.000229625</v>
+        <v>0.0004413749999999999</v>
       </c>
       <c r="D28">
-        <v>0.0001642243758638293</v>
+        <v>0.0003156648182771808</v>
       </c>
       <c r="E28">
-        <v>3.787346682961775E-05</v>
+        <v>7.279869971441491E-05</v>
       </c>
       <c r="F28">
-        <v>0.0003264357239157458</v>
+        <v>0.0006274602836943371</v>
       </c>
       <c r="G28">
-        <v>0.000131102208327997</v>
+        <v>0.0002519988555286649</v>
       </c>
       <c r="H28">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I28">
-        <v>0.003805032029161263</v>
+        <v>0.007313863960244102</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>0.004167867259225481</v>
+        <v>0.008011289761744788</v>
       </c>
       <c r="C29">
-        <v>0.0002505</v>
+        <v>0.0004815</v>
       </c>
       <c r="D29">
-        <v>0.0001819783624437027</v>
+        <v>0.0003497907445774168</v>
       </c>
       <c r="E29">
-        <v>4.455701979955029E-05</v>
+        <v>8.564552907578227E-05</v>
       </c>
       <c r="F29">
-        <v>0.0003484426266516387</v>
+        <v>0.0006697609769771014</v>
       </c>
       <c r="G29">
-        <v>8.926107801055117E-05</v>
+        <v>0.0001715736888705803</v>
       </c>
       <c r="H29">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I29">
-        <v>0.005095930492420414</v>
+        <v>0.00979517178483205</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>0.004725648751166435</v>
+        <v>0.009083432629487579</v>
       </c>
       <c r="C30">
-        <v>0.00029225</v>
+        <v>0.0005617500000000001</v>
       </c>
       <c r="D30">
-        <v>0.0001775398657987343</v>
+        <v>0.0003412592630023574</v>
       </c>
       <c r="E30">
-        <v>5.124057276948284E-05</v>
+        <v>9.849235843714964E-05</v>
       </c>
       <c r="F30">
-        <v>0.0002274046616042273</v>
+        <v>0.000437107163921898</v>
       </c>
       <c r="G30">
-        <v>6.415639982008364E-05</v>
+        <v>0.0001233185888757296</v>
       </c>
       <c r="H30">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I30">
-        <v>0.005551564397448453</v>
+        <v>0.0106709710873111</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>0.004431264074864263</v>
+        <v>0.008517579449289997</v>
       </c>
       <c r="C31">
-        <v>0.00020875</v>
+        <v>0.00040125</v>
       </c>
       <c r="D31">
-        <v>0.0001908553557336394</v>
+        <v>0.0003668537077275343</v>
       </c>
       <c r="E31">
-        <v>7.129123167928043E-05</v>
+        <v>0.0001370328465212516</v>
       </c>
       <c r="F31">
-        <v>0.0001760552218871437</v>
+        <v>0.0003384055462621144</v>
       </c>
       <c r="G31">
-        <v>0.0001032081214496998</v>
+        <v>0.0001983820777566085</v>
       </c>
       <c r="H31">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I31">
-        <v>0.005186753664129822</v>
+        <v>0.009969748060992059</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.002819895320368168</v>
+        <v>0.005420277831366361</v>
       </c>
       <c r="C32">
-        <v>0.000167</v>
+        <v>0.000321</v>
       </c>
       <c r="D32">
-        <v>0.0001819783624437027</v>
+        <v>0.0003497907445774168</v>
       </c>
       <c r="E32">
-        <v>6.015197672939288E-05</v>
+        <v>0.000115621464252306</v>
       </c>
       <c r="F32">
-        <v>0.0001540483191512508</v>
+        <v>0.00029610485297935</v>
       </c>
       <c r="G32">
-        <v>0.0001171551648888484</v>
+        <v>0.0002251904666426367</v>
       </c>
       <c r="I32">
-        <v>0.003500229143581363</v>
+        <v>0.006727985359818071</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.001781801988144722</v>
+        <v>0.003424900827511711</v>
       </c>
       <c r="C33">
-        <v>0.0002505</v>
+        <v>0.0004815</v>
       </c>
       <c r="D33">
-        <v>9.320842954433548E-05</v>
+        <v>0.0001791611130762378</v>
       </c>
       <c r="E33">
-        <v>7.129123167928043E-05</v>
+        <v>0.0001370328465212516</v>
       </c>
       <c r="F33">
-        <v>8.435979382092301E-05</v>
+        <v>0.0001621526575839298</v>
       </c>
       <c r="G33">
-        <v>0.0001004187127618701</v>
+        <v>0.0001930203999794029</v>
       </c>
       <c r="I33">
-        <v>0.002381580155951131</v>
+        <v>0.004577767844672534</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.001506784724757168</v>
+        <v>0.002896274830221862</v>
       </c>
       <c r="C34">
-        <v>0.000146125</v>
+        <v>0.000280875</v>
       </c>
       <c r="D34">
-        <v>4.438496644968357E-05</v>
+        <v>8.531481575058936E-05</v>
       </c>
       <c r="E34">
-        <v>2.227850989977514E-05</v>
+        <v>4.282276453789114E-05</v>
       </c>
       <c r="F34">
-        <v>7.335634245297655E-05</v>
+        <v>0.0001410023109425477</v>
       </c>
       <c r="G34">
-        <v>8.647166932272147E-05</v>
+        <v>0.0001662120110933748</v>
       </c>
       <c r="H34">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I34">
-        <v>0.001882066042140222</v>
+        <v>0.003617623949263541</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.00119303263554038</v>
+        <v>0.002293194467116537</v>
       </c>
       <c r="C35">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D35">
-        <v>4.882346309465194E-05</v>
+        <v>9.384629732564831E-05</v>
       </c>
       <c r="E35">
-        <v>3.118991385968519E-05</v>
+        <v>5.995187035304758E-05</v>
       </c>
       <c r="F35">
-        <v>9.536324518886948E-05</v>
+        <v>0.000183303004225312</v>
       </c>
       <c r="G35">
-        <v>9.205048669838091E-05</v>
+        <v>0.0001769353666477859</v>
       </c>
       <c r="H35">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I35">
-        <v>0.001650999573639865</v>
+        <v>0.003173478222385607</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.0006158837306848058</v>
+        <v>0.001183824416466005</v>
       </c>
       <c r="C36">
-        <v>0.000146125</v>
+        <v>0.000280875</v>
       </c>
       <c r="D36">
-        <v>2.663097986981015E-05</v>
+        <v>5.118888945035365E-05</v>
       </c>
       <c r="E36">
-        <v>1.559495692984259E-05</v>
+        <v>2.997593517652379E-05</v>
       </c>
       <c r="F36">
-        <v>4.401380547178594E-05</v>
+        <v>8.460138656552861E-05</v>
       </c>
       <c r="G36">
-        <v>4.463053900527558E-05</v>
+        <v>8.578684443529016E-05</v>
       </c>
       <c r="I36">
-        <v>0.00089287901196152</v>
+        <v>0.001716252472093701</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.0003757278105435612</v>
+        <v>0.0007222073484100782</v>
       </c>
       <c r="C37">
-        <v>0.0001878750000000001</v>
+        <v>0.000361125</v>
       </c>
       <c r="D37">
-        <v>8.876993289936721E-06</v>
+        <v>1.706296315011786E-05</v>
       </c>
       <c r="E37">
-        <v>1.113925494988757E-05</v>
+        <v>2.141138226894557E-05</v>
       </c>
       <c r="F37">
-        <v>4.768162259443474E-05</v>
+        <v>9.165150211265599E-05</v>
       </c>
       <c r="G37">
-        <v>2.789408687829724E-05</v>
+        <v>5.361677777205636E-05</v>
       </c>
       <c r="H37">
-        <v>2.664829257897821E-06</v>
+        <v>5.122216717276651E-06</v>
       </c>
       <c r="I37">
-        <v>0.0006618595975140153</v>
+        <v>0.001272197190431131</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.0001820536813973955</v>
+        <v>0.0003499355193327182</v>
       </c>
       <c r="C38">
-        <v>0.00020875</v>
+        <v>0.00040125</v>
       </c>
       <c r="D38">
-        <v>8.876993289936721E-06</v>
+        <v>1.706296315011786E-05</v>
       </c>
       <c r="E38">
-        <v>1.113925494988757E-05</v>
+        <v>2.141138226894557E-05</v>
       </c>
       <c r="F38">
-        <v>3.301035410383944E-05</v>
+        <v>6.345103992414651E-05</v>
       </c>
       <c r="G38">
-        <v>3.068349556612696E-05</v>
+        <v>5.897845554926198E-05</v>
       </c>
       <c r="I38">
-        <v>0.0004745137793071862</v>
+        <v>0.0009120893602251902</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.0001394453729852392</v>
+        <v>0.0002680357169356992</v>
       </c>
       <c r="C39">
-        <v>6.262499999999999E-05</v>
+        <v>0.000120375</v>
       </c>
       <c r="F39">
-        <v>1.833908561324414E-05</v>
+        <v>3.525057773563694E-05</v>
       </c>
       <c r="G39">
-        <v>3.068349556612696E-05</v>
+        <v>5.897845554926198E-05</v>
       </c>
       <c r="I39">
-        <v>0.0002510929541646102</v>
+        <v>0.0004826397502205981</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.0001355718904023158</v>
+        <v>0.000260590280354152</v>
       </c>
       <c r="C40">
-        <v>8.35E-05</v>
+        <v>0.0001605</v>
       </c>
       <c r="E40">
-        <v>4.455701979955027E-06</v>
+        <v>8.564552907578225E-06</v>
       </c>
       <c r="F40">
-        <v>3.301035410383944E-05</v>
+        <v>6.345103992414651E-05</v>
       </c>
       <c r="G40">
-        <v>5.857758244442418E-05</v>
+        <v>0.0001125952333213183</v>
       </c>
       <c r="I40">
-        <v>0.0003151155289305345</v>
+        <v>0.0006057011065071951</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.0002982581588850949</v>
+        <v>0.0005732986167791342</v>
       </c>
       <c r="C41">
-        <v>4.175E-05</v>
+        <v>8.025E-05</v>
       </c>
       <c r="D41">
-        <v>1.775398657987344E-05</v>
+        <v>3.412592630023572E-05</v>
       </c>
       <c r="E41">
-        <v>8.911403959910054E-06</v>
+        <v>1.712910581515645E-05</v>
       </c>
       <c r="F41">
-        <v>6.602070820767888E-05</v>
+        <v>0.000126902079848293</v>
       </c>
       <c r="G41">
-        <v>0.000111576347513189</v>
+        <v>0.0002144671110882255</v>
       </c>
       <c r="I41">
-        <v>0.0005442706051457464</v>
+        <v>0.001046172839831045</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.0006623655216798858</v>
+        <v>0.00127316965544457</v>
       </c>
       <c r="C42">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D42">
-        <v>3.994646980471522E-05</v>
+        <v>7.67833341755305E-05</v>
       </c>
       <c r="E42">
-        <v>3.118991385968519E-05</v>
+        <v>5.995187035304758E-05</v>
       </c>
       <c r="F42">
-        <v>9.169542806622066E-05</v>
+        <v>0.0001762528886781846</v>
       </c>
       <c r="G42">
-        <v>0.0001422598430793159</v>
+        <v>0.0002734455666374875</v>
       </c>
       <c r="H42">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I42">
-        <v>0.001098036835005618</v>
+        <v>0.002110597748723374</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.002204011589683363</v>
+        <v>0.004236453414900357</v>
       </c>
       <c r="C43">
-        <v>0.000104375</v>
+        <v>0.000200625</v>
       </c>
       <c r="D43">
-        <v>5.32619597396203E-05</v>
+        <v>0.0001023777789007073</v>
       </c>
       <c r="E43">
-        <v>0.0001002532945489881</v>
+        <v>0.0001927024404205101</v>
       </c>
       <c r="F43">
-        <v>0.0002384081129721738</v>
+        <v>0.0004582575105632799</v>
       </c>
       <c r="G43">
-        <v>0.0002175738776507185</v>
+        <v>0.0004182108666220398</v>
       </c>
       <c r="I43">
-        <v>0.002917883834594865</v>
+        <v>0.005608627011406896</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>0.003985813577828085</v>
+        <v>0.007661354242412065</v>
       </c>
       <c r="C44">
-        <v>0.00012525</v>
+        <v>0.00024075</v>
       </c>
       <c r="D44">
-        <v>0.0001331548993490508</v>
+        <v>0.0002559444472517682</v>
       </c>
       <c r="E44">
-        <v>8.020263563919052E-05</v>
+        <v>0.0001541619523364081</v>
       </c>
       <c r="F44">
-        <v>0.0002934253698119062</v>
+        <v>0.000564009243770191</v>
       </c>
       <c r="G44">
-        <v>0.0001980480168359104</v>
+        <v>0.0003806791221816003</v>
       </c>
       <c r="H44">
-        <v>1.598897554738692E-05</v>
+        <v>3.073330030365989E-05</v>
       </c>
       <c r="I44">
-        <v>0.00483188347501153</v>
+        <v>0.009287632308255691</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>0.004361541388371647</v>
+        <v>0.008383561590822142</v>
       </c>
       <c r="C45">
-        <v>0.00020875</v>
+        <v>0.00040125</v>
       </c>
       <c r="D45">
-        <v>0.0001242779060591141</v>
+        <v>0.0002388814841016502</v>
       </c>
       <c r="E45">
-        <v>5.346842375946033E-05</v>
+        <v>0.0001027746348909387</v>
       </c>
       <c r="F45">
-        <v>0.0002347402958495249</v>
+        <v>0.0004512073950161526</v>
       </c>
       <c r="G45">
-        <v>0.0001450492517671456</v>
+        <v>0.000278807244414693</v>
       </c>
       <c r="H45">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I45">
-        <v>0.005138486582838483</v>
+        <v>0.009876971216114683</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.003284713230318966</v>
+        <v>0.006313730221152026</v>
       </c>
       <c r="C46">
-        <v>0.0003131249999999999</v>
+        <v>0.0006018749999999999</v>
       </c>
       <c r="D46">
-        <v>0.0001287164027040824</v>
+        <v>0.0002474129656767092</v>
       </c>
       <c r="E46">
-        <v>4.901272177950532E-05</v>
+        <v>9.421008198336047E-05</v>
       </c>
       <c r="F46">
-        <v>0.0002824219184439595</v>
+        <v>0.000542858897128809</v>
       </c>
       <c r="G46">
-        <v>0.0002008374255237402</v>
+        <v>0.0003860407999588058</v>
       </c>
       <c r="H46">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I46">
-        <v>0.004269486015801845</v>
+        <v>0.008206616832768817</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.002486775818236764</v>
+        <v>0.004779970285353298</v>
       </c>
       <c r="C47">
-        <v>0.00020875</v>
+        <v>0.00040125</v>
       </c>
       <c r="D47">
-        <v>0.0001242779060591141</v>
+        <v>0.0002388814841016502</v>
       </c>
       <c r="E47">
-        <v>3.564561583964022E-05</v>
+        <v>6.85164232606258E-05</v>
       </c>
       <c r="F47">
-        <v>0.0003484426266516387</v>
+        <v>0.0006697609769771014</v>
       </c>
       <c r="G47">
-        <v>0.0001980480168359104</v>
+        <v>0.0003806791221816003</v>
       </c>
       <c r="H47">
-        <v>1.332414628948911E-05</v>
+        <v>2.561108358638325E-05</v>
       </c>
       <c r="I47">
-        <v>0.003415264129912556</v>
+        <v>0.006564669375460659</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.002417053131744144</v>
+        <v>0.00464595242688545</v>
       </c>
       <c r="C48">
-        <v>0.000146125</v>
+        <v>0.000280875</v>
       </c>
       <c r="D48">
-        <v>9.764692618930389E-05</v>
+        <v>0.0001876925946512966</v>
       </c>
       <c r="E48">
-        <v>3.787346682961775E-05</v>
+        <v>7.279869971441491E-05</v>
       </c>
       <c r="F48">
-        <v>0.0003337713581610433</v>
+        <v>0.0006415605147885923</v>
       </c>
       <c r="G48">
-        <v>0.0001422598430793159</v>
+        <v>0.0002734455666374875</v>
       </c>
       <c r="H48">
-        <v>1.065931703159128E-05</v>
+        <v>2.04888668691066E-05</v>
       </c>
       <c r="I48">
-        <v>0.003185389043035017</v>
+        <v>0.006122813669546348</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.002494522783402611</v>
+        <v>0.004794861158516395</v>
       </c>
       <c r="C49">
-        <v>0.000334</v>
+        <v>0.000642</v>
       </c>
       <c r="D49">
-        <v>9.764692618930389E-05</v>
+        <v>0.0001876925946512966</v>
       </c>
       <c r="E49">
-        <v>2.896206286970768E-05</v>
+        <v>5.566959389925846E-05</v>
       </c>
       <c r="F49">
-        <v>0.000275086284198662</v>
+        <v>0.0005287586660345538</v>
       </c>
       <c r="G49">
-        <v>0.0001143657562010187</v>
+        <v>0.0002198287888654311</v>
       </c>
       <c r="H49">
-        <v>5.329658515795642E-06</v>
+        <v>1.02444334345533E-05</v>
       </c>
       <c r="I49">
-        <v>0.0033499134713771</v>
+        <v>0.006439055235401489</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_SOx.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.8104766759710602</v>
+        <v>0.4724639227366179</v>
       </c>
       <c r="C2">
-        <v>0.0102168</v>
+        <v>0.00595584</v>
       </c>
       <c r="D2">
-        <v>0.04732507225290059</v>
+        <v>0.02758794909626453</v>
       </c>
       <c r="E2">
-        <v>0.05476445884494808</v>
+        <v>0.03192470779178368</v>
       </c>
       <c r="F2">
-        <v>0.08621092992403973</v>
+        <v>0.05025629403323868</v>
       </c>
       <c r="G2">
-        <v>0.282130490137167</v>
+        <v>0.1644667663435267</v>
       </c>
       <c r="H2">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I2">
-        <v>1.302609033757656</v>
+        <v>0.7593503824695793</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.8050225933602179</v>
+        <v>0.4692844885324681</v>
       </c>
       <c r="C3">
-        <v>0.009288000000000003</v>
+        <v>0.005414399999999999</v>
       </c>
       <c r="D3">
-        <v>0.09990848586723475</v>
+        <v>0.05824122586989181</v>
       </c>
       <c r="E3">
-        <v>0.05476445884494808</v>
+        <v>0.03192470779178368</v>
       </c>
       <c r="F3">
-        <v>0.06978980041469882</v>
+        <v>0.04068366659833604</v>
       </c>
       <c r="G3">
-        <v>0.2425332283635293</v>
+        <v>0.1413837114181194</v>
       </c>
       <c r="H3">
-        <v>0.01722690994131097</v>
+        <v>0.01004235370222159</v>
       </c>
       <c r="I3">
-        <v>1.29853347679194</v>
+        <v>0.7569745539128206</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.8530185203356244</v>
+        <v>0.4972635095289835</v>
       </c>
       <c r="C4">
-        <v>0.01857600000000001</v>
+        <v>0.0108288</v>
       </c>
       <c r="D4">
-        <v>0.07887512042150105</v>
+        <v>0.0459799151604409</v>
       </c>
       <c r="E4">
-        <v>0.06845557355618506</v>
+        <v>0.03990588473972957</v>
       </c>
       <c r="F4">
-        <v>0.06322134861096249</v>
+        <v>0.03685461562437502</v>
       </c>
       <c r="G4">
-        <v>0.2227345974767106</v>
+        <v>0.1298421839554158</v>
       </c>
       <c r="H4">
-        <v>0.04019612319639225</v>
+        <v>0.02343215863851704</v>
       </c>
       <c r="I4">
-        <v>1.345077283597376</v>
+        <v>0.7841070676474616</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>1.120268568266862</v>
+        <v>0.65305578553231</v>
       </c>
       <c r="C5">
-        <v>0.006501599999999999</v>
+        <v>0.00379008</v>
       </c>
       <c r="D5">
-        <v>0.1288293633551181</v>
+        <v>0.07510052809538677</v>
       </c>
       <c r="E5">
-        <v>0.09583780297865908</v>
+        <v>0.05586823863562147</v>
       </c>
       <c r="F5">
-        <v>0.06568451803736364</v>
+        <v>0.0382905097396104</v>
       </c>
       <c r="G5">
-        <v>0.1286911007643217</v>
+        <v>0.07501992850757359</v>
       </c>
       <c r="H5">
-        <v>0.01722690994131097</v>
+        <v>0.01004235370222159</v>
       </c>
       <c r="I5">
-        <v>1.563039863343635</v>
+        <v>0.911167424212724</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>1.449695157961693</v>
+        <v>0.8450936114629405</v>
       </c>
       <c r="C6">
-        <v>0.004644000000000001</v>
+        <v>0.002707199999999999</v>
       </c>
       <c r="D6">
-        <v>0.1104251685901013</v>
+        <v>0.06437188122461721</v>
       </c>
       <c r="E6">
-        <v>0.1140926225936418</v>
+        <v>0.06650980789954937</v>
       </c>
       <c r="F6">
-        <v>0.05501078385629199</v>
+        <v>0.03206830190692369</v>
       </c>
       <c r="G6">
-        <v>0.138590416207731</v>
+        <v>0.08079069223892535</v>
       </c>
       <c r="H6">
-        <v>0.01722690994131097</v>
+        <v>0.01004235370222159</v>
       </c>
       <c r="I6">
-        <v>1.889685059150771</v>
+        <v>1.101583848435178</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>1.229350220483692</v>
+        <v>0.7166444696153005</v>
       </c>
       <c r="C7">
-        <v>0.004644000000000001</v>
+        <v>0.002707199999999999</v>
       </c>
       <c r="D7">
-        <v>0.06572926701791747</v>
+        <v>0.03831659596703413</v>
       </c>
       <c r="E7">
-        <v>0.1414748520161159</v>
+        <v>0.08247216179544117</v>
       </c>
       <c r="F7">
-        <v>0.03858965434695113</v>
+        <v>0.02249567447202112</v>
       </c>
       <c r="G7">
-        <v>0.1286911007643217</v>
+        <v>0.07501992850757359</v>
       </c>
       <c r="H7">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I7">
-        <v>1.637190611197849</v>
+        <v>0.9543932865277398</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.8704715846903168</v>
+        <v>0.5074376989822625</v>
       </c>
       <c r="C8">
-        <v>0.0111456</v>
+        <v>0.006497280000000003</v>
       </c>
       <c r="D8">
-        <v>0.0446959015721839</v>
+        <v>0.02605528525758319</v>
       </c>
       <c r="E8">
-        <v>0.0867103931711678</v>
+        <v>0.05054745400365749</v>
       </c>
       <c r="F8">
-        <v>0.02216852483761019</v>
+        <v>0.01292304703711851</v>
       </c>
       <c r="G8">
-        <v>0.2128352820333013</v>
+        <v>0.1240714202240641</v>
       </c>
       <c r="H8">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I8">
-        <v>1.259511892932121</v>
+        <v>0.7342270879728336</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.5410449949954852</v>
+        <v>0.3153998730516317</v>
       </c>
       <c r="C9">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D9">
-        <v>0.04732507225290059</v>
+        <v>0.02758794909626453</v>
       </c>
       <c r="E9">
-        <v>0.1323474422086244</v>
+        <v>0.07715137716347722</v>
       </c>
       <c r="F9">
-        <v>0.02298958131307726</v>
+        <v>0.01340167840886364</v>
       </c>
       <c r="G9">
-        <v>0.2276842551984155</v>
+        <v>0.1327275658210917</v>
       </c>
       <c r="H9">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I9">
-        <v>0.9827064492822734</v>
+        <v>0.5728645347754027</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.4395990584338318</v>
+        <v>0.2562623968544507</v>
       </c>
       <c r="C10">
-        <v>0.0102168</v>
+        <v>0.00595584</v>
       </c>
       <c r="D10">
-        <v>0.02103336544573358</v>
+        <v>0.0122613107094509</v>
       </c>
       <c r="E10">
-        <v>0.03650963922996539</v>
+        <v>0.02128313852785579</v>
       </c>
       <c r="F10">
-        <v>0.01395796008293976</v>
+        <v>0.008136733319667213</v>
       </c>
       <c r="G10">
-        <v>0.138590416207731</v>
+        <v>0.08079069223892535</v>
       </c>
       <c r="I10">
-        <v>0.6599072394002017</v>
+        <v>0.3846901116503499</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.2890663783746036</v>
+        <v>0.1685100128199245</v>
       </c>
       <c r="C11">
-        <v>0.0027864</v>
+        <v>0.001624320000000001</v>
       </c>
       <c r="D11">
-        <v>0.007887512042150095</v>
+        <v>0.004597991516044096</v>
       </c>
       <c r="E11">
-        <v>0.05932816374869375</v>
+        <v>0.03458510010776564</v>
       </c>
       <c r="F11">
-        <v>0.009852677705604537</v>
+        <v>0.005743576460941559</v>
       </c>
       <c r="G11">
-        <v>0.1484897316511404</v>
+        <v>0.08656145597027713</v>
       </c>
       <c r="I11">
-        <v>0.5174108635221925</v>
+        <v>0.3016224568749529</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.1636224783252474</v>
+        <v>0.09538302612448543</v>
       </c>
       <c r="C12">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D12">
-        <v>0.005258341361433395</v>
+        <v>0.003065327677362726</v>
       </c>
       <c r="E12">
-        <v>0.03650963922996539</v>
+        <v>0.02128313852785579</v>
       </c>
       <c r="F12">
-        <v>0.004926338852802269</v>
+        <v>0.00287178823047078</v>
       </c>
       <c r="G12">
-        <v>0.04454691949534213</v>
+        <v>0.02596843679108317</v>
       </c>
       <c r="H12">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I12">
-        <v>0.268965220578561</v>
+        <v>0.1567921285853318</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.09926430351731691</v>
+        <v>0.05786570251552112</v>
       </c>
       <c r="C13">
-        <v>0.003715199999999998</v>
+        <v>0.002165760000000001</v>
       </c>
       <c r="D13">
-        <v>0.005258341361433395</v>
+        <v>0.003065327677362726</v>
       </c>
       <c r="E13">
-        <v>0.02281852451872837</v>
+        <v>0.01330196157990986</v>
       </c>
       <c r="F13">
-        <v>0.004926338852802269</v>
+        <v>0.00287178823047078</v>
       </c>
       <c r="G13">
-        <v>0.03959726177363744</v>
+        <v>0.02308305492540726</v>
       </c>
       <c r="I13">
-        <v>0.1755799700239184</v>
+        <v>0.1023535949286717</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.05781327567492082</v>
+        <v>0.03370200256398481</v>
       </c>
       <c r="C14">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D14">
-        <v>0.007887512042150095</v>
+        <v>0.004597991516044096</v>
       </c>
       <c r="E14">
-        <v>0.0182548196149827</v>
+        <v>0.01064156926392789</v>
       </c>
       <c r="F14">
-        <v>0.007389508279203403</v>
+        <v>0.00430768234570617</v>
       </c>
       <c r="G14">
-        <v>0.07424486582557022</v>
+        <v>0.04328072798513857</v>
       </c>
       <c r="I14">
-        <v>0.1711627814368272</v>
+        <v>0.09977861367480155</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.02727041305420791</v>
+        <v>0.01589717102074758</v>
       </c>
       <c r="C15">
-        <v>0.004644000000000001</v>
+        <v>0.002707199999999999</v>
       </c>
       <c r="D15">
-        <v>0.007887512042150095</v>
+        <v>0.004597991516044096</v>
       </c>
       <c r="E15">
-        <v>0.004563704903745674</v>
+        <v>0.002660392315981973</v>
       </c>
       <c r="F15">
-        <v>0.007389508279203403</v>
+        <v>0.00430768234570617</v>
       </c>
       <c r="G15">
-        <v>0.03464760405193276</v>
+        <v>0.02019767305973134</v>
       </c>
       <c r="I15">
-        <v>0.08640274233123985</v>
+        <v>0.05036811025821115</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.01527143131035645</v>
+        <v>0.008902415771618646</v>
       </c>
       <c r="C16">
-        <v>0.0027864</v>
+        <v>0.001624320000000001</v>
       </c>
       <c r="D16">
-        <v>0.002629170680716698</v>
+        <v>0.001532663838681363</v>
       </c>
       <c r="F16">
-        <v>0.002463169426401134</v>
+        <v>0.00143589411523539</v>
       </c>
       <c r="G16">
-        <v>0.0593958926604562</v>
+        <v>0.03462458238811088</v>
       </c>
       <c r="I16">
-        <v>0.08254606407793048</v>
+        <v>0.04811987611364628</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.07417552350744565</v>
+        <v>0.04324030517643339</v>
       </c>
       <c r="D17">
-        <v>0.005258341361433395</v>
+        <v>0.003065327677362726</v>
       </c>
       <c r="E17">
-        <v>0.0182548196149827</v>
+        <v>0.01064156926392789</v>
       </c>
       <c r="F17">
-        <v>0.006568451803736357</v>
+        <v>0.00382905097396104</v>
       </c>
       <c r="G17">
-        <v>0.123741443042617</v>
+        <v>0.07213454664189768</v>
       </c>
       <c r="I17">
-        <v>0.2279985793302151</v>
+        <v>0.1329107997335827</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.1788939096356039</v>
+        <v>0.104285441896104</v>
       </c>
       <c r="C18">
-        <v>0.003715199999999998</v>
+        <v>0.002165760000000001</v>
       </c>
       <c r="D18">
-        <v>0.01051668272286679</v>
+        <v>0.006130655354725452</v>
       </c>
       <c r="E18">
-        <v>0.05476445884494808</v>
+        <v>0.03192470779178368</v>
       </c>
       <c r="F18">
-        <v>0.02134746836214316</v>
+        <v>0.01244441566537338</v>
       </c>
       <c r="G18">
-        <v>0.2771808324154621</v>
+        <v>0.1615813844778507</v>
       </c>
       <c r="I18">
-        <v>0.5464185519810241</v>
+        <v>0.3185323651858373</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.5650429584831881</v>
+        <v>0.3293893835498889</v>
       </c>
       <c r="C19">
-        <v>0.0027864</v>
+        <v>0.001624320000000001</v>
       </c>
       <c r="D19">
-        <v>0.02629170680716701</v>
+        <v>0.01532663838681364</v>
       </c>
       <c r="E19">
-        <v>0.1916756059573182</v>
+        <v>0.1117364772712429</v>
       </c>
       <c r="F19">
-        <v>0.04269493672428633</v>
+        <v>0.02488883133074675</v>
       </c>
       <c r="G19">
-        <v>0.3959726177363746</v>
+        <v>0.2308305492540724</v>
       </c>
       <c r="H19">
-        <v>0.01722690994131097</v>
+        <v>0.01004235370222159</v>
       </c>
       <c r="I19">
-        <v>1.241691135649645</v>
+        <v>0.7238385534949863</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>1.14099408218806</v>
+        <v>0.6651376355080784</v>
       </c>
       <c r="C20">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D20">
-        <v>0.08676263246365104</v>
+        <v>0.05057790667648502</v>
       </c>
       <c r="E20">
-        <v>0.1597296716310985</v>
+        <v>0.09311373105936908</v>
       </c>
       <c r="F20">
-        <v>0.0706108568901659</v>
+        <v>0.04116229797008115</v>
       </c>
       <c r="G20">
-        <v>0.2870801478588713</v>
+        <v>0.1673521482092027</v>
       </c>
       <c r="H20">
-        <v>0.03445381988262193</v>
+        <v>0.02008470740444318</v>
       </c>
       <c r="I20">
-        <v>1.785204010914468</v>
+        <v>1.040677066827659</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>1.253348183971396</v>
+        <v>0.7306339801135574</v>
       </c>
       <c r="C21">
-        <v>0.0102168</v>
+        <v>0.00595584</v>
       </c>
       <c r="D21">
-        <v>0.05258341361433402</v>
+        <v>0.03065327677362728</v>
       </c>
       <c r="E21">
-        <v>0.1186563274973875</v>
+        <v>0.06917020021553127</v>
       </c>
       <c r="F21">
-        <v>0.06157923566002835</v>
+        <v>0.03589735288088476</v>
       </c>
       <c r="G21">
-        <v>0.2672815169720525</v>
+        <v>0.155810620746499</v>
       </c>
       <c r="H21">
-        <v>0.03445381988262193</v>
+        <v>0.02008470740444318</v>
       </c>
       <c r="I21">
-        <v>1.79811929759782</v>
+        <v>1.048205978134543</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.9795532369071484</v>
+        <v>0.5710263830652526</v>
       </c>
       <c r="C22">
-        <v>0.006501599999999999</v>
+        <v>0.00379008</v>
       </c>
       <c r="D22">
-        <v>0.07361677906006758</v>
+        <v>0.04291458748307816</v>
       </c>
       <c r="E22">
-        <v>0.1186563274973875</v>
+        <v>0.06917020021553127</v>
       </c>
       <c r="F22">
-        <v>0.07225296984109994</v>
+        <v>0.04211956071357144</v>
       </c>
       <c r="G22">
-        <v>0.3365767250759182</v>
+        <v>0.1962059668659618</v>
       </c>
       <c r="H22">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I22">
-        <v>1.615869154950473</v>
+        <v>0.9419640345137648</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.690486858532545</v>
+        <v>0.402516370245328</v>
       </c>
       <c r="C23">
-        <v>0.0157896</v>
+        <v>0.009204480000000001</v>
       </c>
       <c r="D23">
-        <v>0.06047092565648409</v>
+        <v>0.0352512682896713</v>
       </c>
       <c r="E23">
-        <v>0.04563704903745673</v>
+        <v>0.02660392315981972</v>
       </c>
       <c r="F23">
-        <v>0.08867409935044078</v>
+        <v>0.05169218814847404</v>
       </c>
       <c r="G23">
-        <v>0.331627067354214</v>
+        <v>0.1933205850002858</v>
       </c>
       <c r="H23">
-        <v>0.03445381988262193</v>
+        <v>0.02008470740444318</v>
       </c>
       <c r="I23">
-        <v>1.267139419813762</v>
+        <v>0.7386735222480221</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.7035766567985642</v>
+        <v>0.4101470123352871</v>
       </c>
       <c r="C24">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D24">
-        <v>0.07098760837935099</v>
+        <v>0.04138192364439682</v>
       </c>
       <c r="E24">
-        <v>0.06845557355618506</v>
+        <v>0.03990588473972957</v>
       </c>
       <c r="F24">
-        <v>0.08210564754670456</v>
+        <v>0.047863137174513</v>
       </c>
       <c r="G24">
-        <v>0.2969794633022809</v>
+        <v>0.1731229119405543</v>
       </c>
       <c r="H24">
-        <v>0.01722690994131097</v>
+        <v>0.01004235370222159</v>
       </c>
       <c r="I24">
-        <v>1.244904659524397</v>
+        <v>0.7257118635367024</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.6621256289561688</v>
+        <v>0.3859833123837509</v>
       </c>
       <c r="C25">
-        <v>0.0120744</v>
+        <v>0.007038720000000001</v>
       </c>
       <c r="D25">
-        <v>0.04732507225290059</v>
+        <v>0.02758794909626453</v>
       </c>
       <c r="E25">
-        <v>0.05932816374869375</v>
+        <v>0.03458510010776564</v>
       </c>
       <c r="F25">
-        <v>0.05172655795442382</v>
+        <v>0.03015377641994321</v>
       </c>
       <c r="G25">
-        <v>0.2177849397550059</v>
+        <v>0.1269568020897399</v>
       </c>
       <c r="H25">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I25">
-        <v>1.061849369294734</v>
+        <v>0.6190005625656119</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.7657531985621586</v>
+        <v>0.4463925622625913</v>
       </c>
       <c r="C26">
-        <v>0.006501599999999999</v>
+        <v>0.00379008</v>
       </c>
       <c r="D26">
-        <v>0.07361677906006758</v>
+        <v>0.04291458748307816</v>
       </c>
       <c r="E26">
-        <v>0.05020075394120239</v>
+        <v>0.02926431547580169</v>
       </c>
       <c r="F26">
-        <v>0.08046353459577046</v>
+        <v>0.04690587443102275</v>
       </c>
       <c r="G26">
-        <v>0.2425332283635293</v>
+        <v>0.1413837114181194</v>
       </c>
       <c r="H26">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I26">
-        <v>1.24778061109158</v>
+        <v>0.7273883872409826</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.741755235074456</v>
+        <v>0.4324030517643337</v>
       </c>
       <c r="C27">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D27">
-        <v>0.05784175497576741</v>
+        <v>0.03371860445098997</v>
       </c>
       <c r="E27">
-        <v>0.04563704903745673</v>
+        <v>0.02660392315981972</v>
       </c>
       <c r="F27">
-        <v>0.04926338852802271</v>
+        <v>0.0287178823047078</v>
       </c>
       <c r="G27">
-        <v>0.262331859250348</v>
+        <v>0.1529252388808231</v>
       </c>
       <c r="H27">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I27">
-        <v>1.175744293493591</v>
+        <v>0.685395123028822</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.8181123916262376</v>
+        <v>0.4769151306224272</v>
       </c>
       <c r="C28">
-        <v>0.0102168</v>
+        <v>0.00595584</v>
       </c>
       <c r="D28">
-        <v>0.09727931518651786</v>
+        <v>0.05670856203121043</v>
       </c>
       <c r="E28">
-        <v>0.0775829833636764</v>
+        <v>0.04522666937169353</v>
       </c>
       <c r="F28">
-        <v>0.07307402631656697</v>
+        <v>0.04259819208531657</v>
       </c>
       <c r="G28">
-        <v>0.23263391292012</v>
+        <v>0.1356129476867678</v>
       </c>
       <c r="H28">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I28">
-        <v>1.3318686426682</v>
+        <v>0.7764071467337109</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>1.173718577853108</v>
+        <v>0.6842142407329744</v>
       </c>
       <c r="C29">
-        <v>0.0111456</v>
+        <v>0.006497280000000003</v>
       </c>
       <c r="D29">
-        <v>0.1077959979093847</v>
+        <v>0.06283921738593591</v>
       </c>
       <c r="E29">
-        <v>0.09127409807491346</v>
+        <v>0.05320784631963944</v>
       </c>
       <c r="F29">
-        <v>0.0780003651693693</v>
+        <v>0.04546998031578735</v>
       </c>
       <c r="G29">
-        <v>0.1583890470945498</v>
+        <v>0.09233221970162905</v>
       </c>
       <c r="H29">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I29">
-        <v>1.649035202670177</v>
+        <v>0.9612980406263356</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>1.330796157045348</v>
+        <v>0.7757819458124811</v>
       </c>
       <c r="C30">
-        <v>0.0130032</v>
+        <v>0.007580160000000001</v>
       </c>
       <c r="D30">
-        <v>0.105166827228668</v>
+        <v>0.06130655354725456</v>
       </c>
       <c r="E30">
-        <v>0.1049652127861504</v>
+        <v>0.06118902326758539</v>
       </c>
       <c r="F30">
-        <v>0.05090550147895679</v>
+        <v>0.02967514504819805</v>
       </c>
       <c r="G30">
-        <v>0.1138421275992077</v>
+        <v>0.06636378291054586</v>
       </c>
       <c r="H30">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I30">
-        <v>1.747390542707182</v>
+        <v>1.018633866756434</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>1.247894101360556</v>
+        <v>0.7274545459094084</v>
       </c>
       <c r="C31">
-        <v>0.009288000000000003</v>
+        <v>0.005414399999999999</v>
       </c>
       <c r="D31">
-        <v>0.1130543392708181</v>
+        <v>0.06590454506329869</v>
       </c>
       <c r="E31">
-        <v>0.1460385569198616</v>
+        <v>0.08513255411142315</v>
       </c>
       <c r="F31">
-        <v>0.03941071082241815</v>
+        <v>0.02297430584376624</v>
       </c>
       <c r="G31">
-        <v>0.1831373357030733</v>
+        <v>0.1067591290300086</v>
       </c>
       <c r="H31">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I31">
-        <v>1.750307650704268</v>
+        <v>1.020334382426053</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.7941144281385353</v>
+        <v>0.462925620124169</v>
       </c>
       <c r="C32">
-        <v>0.007430399999999997</v>
+        <v>0.004331520000000001</v>
       </c>
       <c r="D32">
-        <v>0.1077959979093847</v>
+        <v>0.06283921738593591</v>
       </c>
       <c r="E32">
-        <v>0.1232200324011331</v>
+        <v>0.07183059253151323</v>
       </c>
       <c r="F32">
-        <v>0.03448437196961589</v>
+        <v>0.02010251761329545</v>
       </c>
       <c r="G32">
-        <v>0.2078856243115964</v>
+        <v>0.1211860383583881</v>
       </c>
       <c r="I32">
-        <v>1.274930854730266</v>
+        <v>0.7432155060133017</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.5017756001974257</v>
+        <v>0.2925079467817551</v>
       </c>
       <c r="C33">
-        <v>0.0111456</v>
+        <v>0.006497280000000003</v>
       </c>
       <c r="D33">
-        <v>0.05521258429505067</v>
+        <v>0.0321859406123086</v>
       </c>
       <c r="E33">
-        <v>0.1460385569198616</v>
+        <v>0.08513255411142315</v>
       </c>
       <c r="F33">
-        <v>0.01888429893574202</v>
+        <v>0.01100852155013799</v>
       </c>
       <c r="G33">
-        <v>0.1781876779813685</v>
+        <v>0.1038737471643327</v>
       </c>
       <c r="I33">
-        <v>0.9112443183294485</v>
+        <v>0.5312059902199575</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.4243276271234753</v>
+        <v>0.247359981082832</v>
       </c>
       <c r="C34">
-        <v>0.006501599999999999</v>
+        <v>0.00379008</v>
       </c>
       <c r="D34">
-        <v>0.02629170680716701</v>
+        <v>0.01532663838681364</v>
       </c>
       <c r="E34">
-        <v>0.04563704903745673</v>
+        <v>0.02660392315981972</v>
       </c>
       <c r="F34">
-        <v>0.01642112950934091</v>
+        <v>0.0095726274349026</v>
       </c>
       <c r="G34">
-        <v>0.1534393893728451</v>
+        <v>0.0894468378359531</v>
       </c>
       <c r="H34">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I34">
-        <v>0.6783608051640554</v>
+        <v>0.395447539134395</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.3359714888278418</v>
+        <v>0.19585314697561</v>
       </c>
       <c r="C35">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D35">
-        <v>0.0289208774878837</v>
+        <v>0.01685930222549499</v>
       </c>
       <c r="E35">
-        <v>0.0638918686524394</v>
+        <v>0.0372454924237476</v>
       </c>
       <c r="F35">
-        <v>0.02134746836214316</v>
+        <v>0.01244441566537338</v>
       </c>
       <c r="G35">
-        <v>0.1633387048162545</v>
+        <v>0.09521760156730488</v>
       </c>
       <c r="H35">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I35">
-        <v>0.6275719114603329</v>
+        <v>0.3658403700916046</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.1734398270247625</v>
+        <v>0.1011060076919545</v>
       </c>
       <c r="C36">
-        <v>0.006501599999999999</v>
+        <v>0.00379008</v>
       </c>
       <c r="D36">
-        <v>0.01577502408430019</v>
+        <v>0.009195983032088191</v>
       </c>
       <c r="E36">
-        <v>0.0319459343262197</v>
+        <v>0.0186227462118738</v>
       </c>
       <c r="F36">
-        <v>0.009852677705604537</v>
+        <v>0.005743576460941559</v>
       </c>
       <c r="G36">
-        <v>0.07919452354727488</v>
+        <v>0.04616610985081453</v>
       </c>
       <c r="I36">
-        <v>0.3167095866881618</v>
+        <v>0.1846245032476726</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.1058092026503268</v>
+        <v>0.06168102356050058</v>
       </c>
       <c r="C37">
-        <v>0.008359199999999999</v>
+        <v>0.004872959999999999</v>
       </c>
       <c r="D37">
-        <v>0.005258341361433395</v>
+        <v>0.003065327677362726</v>
       </c>
       <c r="E37">
-        <v>0.02281852451872837</v>
+        <v>0.01330196157990986</v>
       </c>
       <c r="F37">
-        <v>0.01067373418107158</v>
+        <v>0.006222207832686688</v>
       </c>
       <c r="G37">
-        <v>0.04949657721704682</v>
+        <v>0.02885381865675905</v>
       </c>
       <c r="H37">
-        <v>0.005742303313770321</v>
+        <v>0.003347451234073864</v>
       </c>
       <c r="I37">
-        <v>0.2081578832423772</v>
+        <v>0.1213447505412928</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.05126837654191088</v>
+        <v>0.02988668151900545</v>
       </c>
       <c r="C38">
-        <v>0.009288000000000003</v>
+        <v>0.005414399999999999</v>
       </c>
       <c r="D38">
-        <v>0.005258341361433395</v>
+        <v>0.003065327677362726</v>
       </c>
       <c r="E38">
-        <v>0.02281852451872837</v>
+        <v>0.01330196157990986</v>
       </c>
       <c r="F38">
-        <v>0.007389508279203403</v>
+        <v>0.00430768234570617</v>
       </c>
       <c r="G38">
-        <v>0.05444623493875148</v>
+        <v>0.03173920052243497</v>
       </c>
       <c r="I38">
-        <v>0.1504689856400275</v>
+        <v>0.08771525364441918</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.03926939479805937</v>
+        <v>0.02289192626987648</v>
       </c>
       <c r="C39">
-        <v>0.0027864</v>
+        <v>0.001624320000000001</v>
       </c>
       <c r="F39">
-        <v>0.004105282377335227</v>
+        <v>0.00239315685872565</v>
       </c>
       <c r="G39">
-        <v>0.05444623493875148</v>
+        <v>0.03173920052243497</v>
       </c>
       <c r="I39">
-        <v>0.1006073121141461</v>
+        <v>0.05864860365103709</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.03817857827589106</v>
+        <v>0.02225603942904658</v>
       </c>
       <c r="C40">
-        <v>0.003715199999999998</v>
+        <v>0.002165760000000001</v>
       </c>
       <c r="E40">
-        <v>0.009127409807491348</v>
+        <v>0.005320784631963947</v>
       </c>
       <c r="F40">
-        <v>0.007389508279203403</v>
+        <v>0.00430768234570617</v>
       </c>
       <c r="G40">
-        <v>0.1039428121557982</v>
+        <v>0.06059301917919407</v>
       </c>
       <c r="I40">
-        <v>0.162353508518384</v>
+        <v>0.09464328558591077</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.08399287220696044</v>
+        <v>0.0489632867439025</v>
       </c>
       <c r="C41">
-        <v>0.001857599999999999</v>
+        <v>0.00108288</v>
       </c>
       <c r="D41">
-        <v>0.01051668272286679</v>
+        <v>0.006130655354725452</v>
       </c>
       <c r="E41">
-        <v>0.0182548196149827</v>
+        <v>0.01064156926392789</v>
       </c>
       <c r="F41">
-        <v>0.01477901655840681</v>
+        <v>0.008615364691412339</v>
       </c>
       <c r="G41">
-        <v>0.1979863088681873</v>
+        <v>0.1154152746270362</v>
       </c>
       <c r="I41">
-        <v>0.327387299971404</v>
+        <v>0.1908490306810044</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.1865296252907822</v>
+        <v>0.1087366497819133</v>
       </c>
       <c r="C42">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D42">
-        <v>0.0236625361264503</v>
+        <v>0.01379397454813226</v>
       </c>
       <c r="E42">
-        <v>0.0638918686524394</v>
+        <v>0.0372454924237476</v>
       </c>
       <c r="F42">
-        <v>0.02052641188667614</v>
+        <v>0.01196578429362825</v>
       </c>
       <c r="G42">
-        <v>0.2524325438069381</v>
+        <v>0.1471544751494714</v>
       </c>
       <c r="H42">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I42">
-        <v>0.5641003923908268</v>
+        <v>0.3288399186650405</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.6206746011137717</v>
+        <v>0.3618196124322144</v>
       </c>
       <c r="C43">
-        <v>0.004644000000000001</v>
+        <v>0.002707199999999999</v>
       </c>
       <c r="D43">
-        <v>0.03155004816860038</v>
+        <v>0.01839196606417638</v>
       </c>
       <c r="E43">
-        <v>0.2053667206685553</v>
+        <v>0.1197176542191888</v>
       </c>
       <c r="F43">
-        <v>0.05336867090535793</v>
+        <v>0.03111103916343344</v>
       </c>
       <c r="G43">
-        <v>0.3860733022929652</v>
+        <v>0.2250597855227206</v>
       </c>
       <c r="I43">
-        <v>1.301677343149251</v>
+        <v>0.7588072574017337</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>1.122450201311198</v>
+        <v>0.654327559213969</v>
       </c>
       <c r="C44">
-        <v>0.0055728</v>
+        <v>0.003248640000000001</v>
       </c>
       <c r="D44">
-        <v>0.07887512042150105</v>
+        <v>0.0459799151604409</v>
       </c>
       <c r="E44">
-        <v>0.1642933765348442</v>
+        <v>0.09577412337535104</v>
       </c>
       <c r="F44">
-        <v>0.06568451803736364</v>
+        <v>0.0382905097396104</v>
       </c>
       <c r="G44">
-        <v>0.3514256982410325</v>
+        <v>0.2048621124629894</v>
       </c>
       <c r="H44">
-        <v>0.03445381988262193</v>
+        <v>0.02008470740444318</v>
       </c>
       <c r="I44">
-        <v>1.822755534428561</v>
+        <v>1.062567567356804</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>1.228259403961524</v>
+        <v>0.7160085827744701</v>
       </c>
       <c r="C45">
-        <v>0.009288000000000003</v>
+        <v>0.005414399999999999</v>
       </c>
       <c r="D45">
-        <v>0.07361677906006758</v>
+        <v>0.04291458748307816</v>
       </c>
       <c r="E45">
-        <v>0.1095289176898962</v>
+        <v>0.06384941558356737</v>
       </c>
       <c r="F45">
-        <v>0.05254761442989086</v>
+        <v>0.03063240779168832</v>
       </c>
       <c r="G45">
-        <v>0.2573822015286434</v>
+        <v>0.1500398570151472</v>
       </c>
       <c r="H45">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I45">
-        <v>1.753592129925104</v>
+        <v>1.022249055584247</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.9250124107987332</v>
+        <v>0.539232041023757</v>
       </c>
       <c r="C46">
-        <v>0.01393199999999999</v>
+        <v>0.0081216</v>
       </c>
       <c r="D46">
-        <v>0.07624594974078437</v>
+        <v>0.04444725132175955</v>
       </c>
       <c r="E46">
-        <v>0.1004015078824048</v>
+        <v>0.05852863095160338</v>
       </c>
       <c r="F46">
-        <v>0.06322134861096249</v>
+        <v>0.03685461562437502</v>
       </c>
       <c r="G46">
-        <v>0.3563753559627371</v>
+        <v>0.2077474943286653</v>
       </c>
       <c r="H46">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I46">
-        <v>1.558157786250703</v>
+        <v>0.9083214381864556</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.7003042072320591</v>
+        <v>0.4082393518127975</v>
       </c>
       <c r="C47">
-        <v>0.009288000000000003</v>
+        <v>0.005414399999999999</v>
       </c>
       <c r="D47">
-        <v>0.07361677906006758</v>
+        <v>0.04291458748307816</v>
       </c>
       <c r="E47">
-        <v>0.07301927845993078</v>
+        <v>0.04256627705571157</v>
       </c>
       <c r="F47">
-        <v>0.0780003651693693</v>
+        <v>0.04546998031578735</v>
       </c>
       <c r="G47">
-        <v>0.3514256982410325</v>
+        <v>0.2048621124629894</v>
       </c>
       <c r="H47">
-        <v>0.02871151656885162</v>
+        <v>0.01673725617036932</v>
       </c>
       <c r="I47">
-        <v>1.314365844731311</v>
+        <v>0.7662039653007333</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.68066950983303</v>
+        <v>0.3967933886778592</v>
       </c>
       <c r="C48">
-        <v>0.006501599999999999</v>
+        <v>0.00379008</v>
       </c>
       <c r="D48">
-        <v>0.05784175497576741</v>
+        <v>0.03371860445098997</v>
       </c>
       <c r="E48">
-        <v>0.0775829833636764</v>
+        <v>0.04522666937169353</v>
       </c>
       <c r="F48">
-        <v>0.07471613926750113</v>
+        <v>0.04355545482880685</v>
       </c>
       <c r="G48">
-        <v>0.2524325438069381</v>
+        <v>0.1471544751494714</v>
       </c>
       <c r="H48">
-        <v>0.02296921325508128</v>
+        <v>0.01338980493629546</v>
       </c>
       <c r="I48">
-        <v>1.172713744501994</v>
+        <v>0.6836284774151165</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.7024858402763958</v>
+        <v>0.4095111254944573</v>
       </c>
       <c r="C49">
-        <v>0.01486079999999999</v>
+        <v>0.008663040000000002</v>
       </c>
       <c r="D49">
-        <v>0.05784175497576741</v>
+        <v>0.03371860445098997</v>
       </c>
       <c r="E49">
-        <v>0.05932816374869375</v>
+        <v>0.03458510010776564</v>
       </c>
       <c r="F49">
-        <v>0.06157923566002835</v>
+        <v>0.03589735288088476</v>
       </c>
       <c r="G49">
-        <v>0.2029359665898918</v>
+        <v>0.1183006564927121</v>
       </c>
       <c r="H49">
-        <v>0.01148460662754064</v>
+        <v>0.006694902468147728</v>
       </c>
       <c r="I49">
-        <v>1.110516367878318</v>
+        <v>0.6473707818949577</v>
       </c>
     </row>
   </sheetData>

--- a/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_SOx.xlsx
+++ b/output/동부대로_S_가을_배출량/동부대로_S_가을_배출량_SOx.xlsx
@@ -438,28 +438,28 @@
         <v>2024101513</v>
       </c>
       <c r="B2">
-        <v>0.4724639227366179</v>
+        <v>0.8104766759710602</v>
       </c>
       <c r="C2">
-        <v>0.00595584</v>
+        <v>0.0102168</v>
       </c>
       <c r="D2">
-        <v>0.02758794909626453</v>
+        <v>0.04732507225290059</v>
       </c>
       <c r="E2">
-        <v>0.03192470779178368</v>
+        <v>0.05476445884494808</v>
       </c>
       <c r="F2">
-        <v>0.05025629403323868</v>
+        <v>0.08621092992403973</v>
       </c>
       <c r="G2">
-        <v>0.1644667663435267</v>
+        <v>0.282130490137167</v>
       </c>
       <c r="H2">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I2">
-        <v>0.7593503824695793</v>
+        <v>1.302609033757656</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -467,28 +467,28 @@
         <v>2024101514</v>
       </c>
       <c r="B3">
-        <v>0.4692844885324681</v>
+        <v>0.8050225933602179</v>
       </c>
       <c r="C3">
-        <v>0.005414399999999999</v>
+        <v>0.009288000000000003</v>
       </c>
       <c r="D3">
-        <v>0.05824122586989181</v>
+        <v>0.09990848586723475</v>
       </c>
       <c r="E3">
-        <v>0.03192470779178368</v>
+        <v>0.05476445884494808</v>
       </c>
       <c r="F3">
-        <v>0.04068366659833604</v>
+        <v>0.06978980041469882</v>
       </c>
       <c r="G3">
-        <v>0.1413837114181194</v>
+        <v>0.2425332283635293</v>
       </c>
       <c r="H3">
-        <v>0.01004235370222159</v>
+        <v>0.01722690994131097</v>
       </c>
       <c r="I3">
-        <v>0.7569745539128206</v>
+        <v>1.29853347679194</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -496,28 +496,28 @@
         <v>2024101515</v>
       </c>
       <c r="B4">
-        <v>0.4972635095289835</v>
+        <v>0.8530185203356244</v>
       </c>
       <c r="C4">
-        <v>0.0108288</v>
+        <v>0.01857600000000001</v>
       </c>
       <c r="D4">
-        <v>0.0459799151604409</v>
+        <v>0.07887512042150105</v>
       </c>
       <c r="E4">
-        <v>0.03990588473972957</v>
+        <v>0.06845557355618506</v>
       </c>
       <c r="F4">
-        <v>0.03685461562437502</v>
+        <v>0.06322134861096249</v>
       </c>
       <c r="G4">
-        <v>0.1298421839554158</v>
+        <v>0.2227345974767106</v>
       </c>
       <c r="H4">
-        <v>0.02343215863851704</v>
+        <v>0.04019612319639225</v>
       </c>
       <c r="I4">
-        <v>0.7841070676474616</v>
+        <v>1.345077283597376</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -525,28 +525,28 @@
         <v>2024101516</v>
       </c>
       <c r="B5">
-        <v>0.65305578553231</v>
+        <v>1.120268568266862</v>
       </c>
       <c r="C5">
-        <v>0.00379008</v>
+        <v>0.006501599999999999</v>
       </c>
       <c r="D5">
-        <v>0.07510052809538677</v>
+        <v>0.1288293633551181</v>
       </c>
       <c r="E5">
-        <v>0.05586823863562147</v>
+        <v>0.09583780297865908</v>
       </c>
       <c r="F5">
-        <v>0.0382905097396104</v>
+        <v>0.06568451803736364</v>
       </c>
       <c r="G5">
-        <v>0.07501992850757359</v>
+        <v>0.1286911007643217</v>
       </c>
       <c r="H5">
-        <v>0.01004235370222159</v>
+        <v>0.01722690994131097</v>
       </c>
       <c r="I5">
-        <v>0.911167424212724</v>
+        <v>1.563039863343635</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -554,28 +554,28 @@
         <v>2024101517</v>
       </c>
       <c r="B6">
-        <v>0.8450936114629405</v>
+        <v>1.449695157961693</v>
       </c>
       <c r="C6">
-        <v>0.002707199999999999</v>
+        <v>0.004644000000000001</v>
       </c>
       <c r="D6">
-        <v>0.06437188122461721</v>
+        <v>0.1104251685901013</v>
       </c>
       <c r="E6">
-        <v>0.06650980789954937</v>
+        <v>0.1140926225936418</v>
       </c>
       <c r="F6">
-        <v>0.03206830190692369</v>
+        <v>0.05501078385629199</v>
       </c>
       <c r="G6">
-        <v>0.08079069223892535</v>
+        <v>0.138590416207731</v>
       </c>
       <c r="H6">
-        <v>0.01004235370222159</v>
+        <v>0.01722690994131097</v>
       </c>
       <c r="I6">
-        <v>1.101583848435178</v>
+        <v>1.889685059150771</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -583,28 +583,28 @@
         <v>2024101518</v>
       </c>
       <c r="B7">
-        <v>0.7166444696153005</v>
+        <v>1.229350220483692</v>
       </c>
       <c r="C7">
-        <v>0.002707199999999999</v>
+        <v>0.004644000000000001</v>
       </c>
       <c r="D7">
-        <v>0.03831659596703413</v>
+        <v>0.06572926701791747</v>
       </c>
       <c r="E7">
-        <v>0.08247216179544117</v>
+        <v>0.1414748520161159</v>
       </c>
       <c r="F7">
-        <v>0.02249567447202112</v>
+        <v>0.03858965434695113</v>
       </c>
       <c r="G7">
-        <v>0.07501992850757359</v>
+        <v>0.1286911007643217</v>
       </c>
       <c r="H7">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I7">
-        <v>0.9543932865277398</v>
+        <v>1.637190611197849</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -612,28 +612,28 @@
         <v>2024101519</v>
       </c>
       <c r="B8">
-        <v>0.5074376989822625</v>
+        <v>0.8704715846903168</v>
       </c>
       <c r="C8">
-        <v>0.006497280000000003</v>
+        <v>0.0111456</v>
       </c>
       <c r="D8">
-        <v>0.02605528525758319</v>
+        <v>0.0446959015721839</v>
       </c>
       <c r="E8">
-        <v>0.05054745400365749</v>
+        <v>0.0867103931711678</v>
       </c>
       <c r="F8">
-        <v>0.01292304703711851</v>
+        <v>0.02216852483761019</v>
       </c>
       <c r="G8">
-        <v>0.1240714202240641</v>
+        <v>0.2128352820333013</v>
       </c>
       <c r="H8">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I8">
-        <v>0.7342270879728336</v>
+        <v>1.259511892932121</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -641,28 +641,28 @@
         <v>2024101520</v>
       </c>
       <c r="B9">
-        <v>0.3153998730516317</v>
+        <v>0.5410449949954852</v>
       </c>
       <c r="C9">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D9">
-        <v>0.02758794909626453</v>
+        <v>0.04732507225290059</v>
       </c>
       <c r="E9">
-        <v>0.07715137716347722</v>
+        <v>0.1323474422086244</v>
       </c>
       <c r="F9">
-        <v>0.01340167840886364</v>
+        <v>0.02298958131307726</v>
       </c>
       <c r="G9">
-        <v>0.1327275658210917</v>
+        <v>0.2276842551984155</v>
       </c>
       <c r="H9">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I9">
-        <v>0.5728645347754027</v>
+        <v>0.9827064492822734</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -670,25 +670,25 @@
         <v>2024101521</v>
       </c>
       <c r="B10">
-        <v>0.2562623968544507</v>
+        <v>0.4395990584338318</v>
       </c>
       <c r="C10">
-        <v>0.00595584</v>
+        <v>0.0102168</v>
       </c>
       <c r="D10">
-        <v>0.0122613107094509</v>
+        <v>0.02103336544573358</v>
       </c>
       <c r="E10">
-        <v>0.02128313852785579</v>
+        <v>0.03650963922996539</v>
       </c>
       <c r="F10">
-        <v>0.008136733319667213</v>
+        <v>0.01395796008293976</v>
       </c>
       <c r="G10">
-        <v>0.08079069223892535</v>
+        <v>0.138590416207731</v>
       </c>
       <c r="I10">
-        <v>0.3846901116503499</v>
+        <v>0.6599072394002017</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -696,25 +696,25 @@
         <v>2024101522</v>
       </c>
       <c r="B11">
-        <v>0.1685100128199245</v>
+        <v>0.2890663783746036</v>
       </c>
       <c r="C11">
-        <v>0.001624320000000001</v>
+        <v>0.0027864</v>
       </c>
       <c r="D11">
-        <v>0.004597991516044096</v>
+        <v>0.007887512042150095</v>
       </c>
       <c r="E11">
-        <v>0.03458510010776564</v>
+        <v>0.05932816374869375</v>
       </c>
       <c r="F11">
-        <v>0.005743576460941559</v>
+        <v>0.009852677705604537</v>
       </c>
       <c r="G11">
-        <v>0.08656145597027713</v>
+        <v>0.1484897316511404</v>
       </c>
       <c r="I11">
-        <v>0.3016224568749529</v>
+        <v>0.5174108635221925</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -722,28 +722,28 @@
         <v>2024101523</v>
       </c>
       <c r="B12">
-        <v>0.09538302612448543</v>
+        <v>0.1636224783252474</v>
       </c>
       <c r="C12">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D12">
-        <v>0.003065327677362726</v>
+        <v>0.005258341361433395</v>
       </c>
       <c r="E12">
-        <v>0.02128313852785579</v>
+        <v>0.03650963922996539</v>
       </c>
       <c r="F12">
-        <v>0.00287178823047078</v>
+        <v>0.004926338852802269</v>
       </c>
       <c r="G12">
-        <v>0.02596843679108317</v>
+        <v>0.04454691949534213</v>
       </c>
       <c r="H12">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I12">
-        <v>0.1567921285853318</v>
+        <v>0.268965220578561</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -751,25 +751,25 @@
         <v>2024101600</v>
       </c>
       <c r="B13">
-        <v>0.05786570251552112</v>
+        <v>0.09926430351731691</v>
       </c>
       <c r="C13">
-        <v>0.002165760000000001</v>
+        <v>0.003715199999999998</v>
       </c>
       <c r="D13">
-        <v>0.003065327677362726</v>
+        <v>0.005258341361433395</v>
       </c>
       <c r="E13">
-        <v>0.01330196157990986</v>
+        <v>0.02281852451872837</v>
       </c>
       <c r="F13">
-        <v>0.00287178823047078</v>
+        <v>0.004926338852802269</v>
       </c>
       <c r="G13">
-        <v>0.02308305492540726</v>
+        <v>0.03959726177363744</v>
       </c>
       <c r="I13">
-        <v>0.1023535949286717</v>
+        <v>0.1755799700239184</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -777,25 +777,25 @@
         <v>2024101601</v>
       </c>
       <c r="B14">
-        <v>0.03370200256398481</v>
+        <v>0.05781327567492082</v>
       </c>
       <c r="C14">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D14">
-        <v>0.004597991516044096</v>
+        <v>0.007887512042150095</v>
       </c>
       <c r="E14">
-        <v>0.01064156926392789</v>
+        <v>0.0182548196149827</v>
       </c>
       <c r="F14">
-        <v>0.00430768234570617</v>
+        <v>0.007389508279203403</v>
       </c>
       <c r="G14">
-        <v>0.04328072798513857</v>
+        <v>0.07424486582557022</v>
       </c>
       <c r="I14">
-        <v>0.09977861367480155</v>
+        <v>0.1711627814368272</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -803,25 +803,25 @@
         <v>2024101602</v>
       </c>
       <c r="B15">
-        <v>0.01589717102074758</v>
+        <v>0.02727041305420791</v>
       </c>
       <c r="C15">
-        <v>0.002707199999999999</v>
+        <v>0.004644000000000001</v>
       </c>
       <c r="D15">
-        <v>0.004597991516044096</v>
+        <v>0.007887512042150095</v>
       </c>
       <c r="E15">
-        <v>0.002660392315981973</v>
+        <v>0.004563704903745674</v>
       </c>
       <c r="F15">
-        <v>0.00430768234570617</v>
+        <v>0.007389508279203403</v>
       </c>
       <c r="G15">
-        <v>0.02019767305973134</v>
+        <v>0.03464760405193276</v>
       </c>
       <c r="I15">
-        <v>0.05036811025821115</v>
+        <v>0.08640274233123985</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -829,22 +829,22 @@
         <v>2024101603</v>
       </c>
       <c r="B16">
-        <v>0.008902415771618646</v>
+        <v>0.01527143131035645</v>
       </c>
       <c r="C16">
-        <v>0.001624320000000001</v>
+        <v>0.0027864</v>
       </c>
       <c r="D16">
-        <v>0.001532663838681363</v>
+        <v>0.002629170680716698</v>
       </c>
       <c r="F16">
-        <v>0.00143589411523539</v>
+        <v>0.002463169426401134</v>
       </c>
       <c r="G16">
-        <v>0.03462458238811088</v>
+        <v>0.0593958926604562</v>
       </c>
       <c r="I16">
-        <v>0.04811987611364628</v>
+        <v>0.08254606407793048</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -852,22 +852,22 @@
         <v>2024101604</v>
       </c>
       <c r="B17">
-        <v>0.04324030517643339</v>
+        <v>0.07417552350744565</v>
       </c>
       <c r="D17">
-        <v>0.003065327677362726</v>
+        <v>0.005258341361433395</v>
       </c>
       <c r="E17">
-        <v>0.01064156926392789</v>
+        <v>0.0182548196149827</v>
       </c>
       <c r="F17">
-        <v>0.00382905097396104</v>
+        <v>0.006568451803736357</v>
       </c>
       <c r="G17">
-        <v>0.07213454664189768</v>
+        <v>0.123741443042617</v>
       </c>
       <c r="I17">
-        <v>0.1329107997335827</v>
+        <v>0.2279985793302151</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -875,25 +875,25 @@
         <v>2024101605</v>
       </c>
       <c r="B18">
-        <v>0.104285441896104</v>
+        <v>0.1788939096356039</v>
       </c>
       <c r="C18">
-        <v>0.002165760000000001</v>
+        <v>0.003715199999999998</v>
       </c>
       <c r="D18">
-        <v>0.006130655354725452</v>
+        <v>0.01051668272286679</v>
       </c>
       <c r="E18">
-        <v>0.03192470779178368</v>
+        <v>0.05476445884494808</v>
       </c>
       <c r="F18">
-        <v>0.01244441566537338</v>
+        <v>0.02134746836214316</v>
       </c>
       <c r="G18">
-        <v>0.1615813844778507</v>
+        <v>0.2771808324154621</v>
       </c>
       <c r="I18">
-        <v>0.3185323651858373</v>
+        <v>0.5464185519810241</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -901,28 +901,28 @@
         <v>2024101606</v>
       </c>
       <c r="B19">
-        <v>0.3293893835498889</v>
+        <v>0.5650429584831881</v>
       </c>
       <c r="C19">
-        <v>0.001624320000000001</v>
+        <v>0.0027864</v>
       </c>
       <c r="D19">
-        <v>0.01532663838681364</v>
+        <v>0.02629170680716701</v>
       </c>
       <c r="E19">
-        <v>0.1117364772712429</v>
+        <v>0.1916756059573182</v>
       </c>
       <c r="F19">
-        <v>0.02488883133074675</v>
+        <v>0.04269493672428633</v>
       </c>
       <c r="G19">
-        <v>0.2308305492540724</v>
+        <v>0.3959726177363746</v>
       </c>
       <c r="H19">
-        <v>0.01004235370222159</v>
+        <v>0.01722690994131097</v>
       </c>
       <c r="I19">
-        <v>0.7238385534949863</v>
+        <v>1.241691135649645</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -930,28 +930,28 @@
         <v>2024101607</v>
       </c>
       <c r="B20">
-        <v>0.6651376355080784</v>
+        <v>1.14099408218806</v>
       </c>
       <c r="C20">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D20">
-        <v>0.05057790667648502</v>
+        <v>0.08676263246365104</v>
       </c>
       <c r="E20">
-        <v>0.09311373105936908</v>
+        <v>0.1597296716310985</v>
       </c>
       <c r="F20">
-        <v>0.04116229797008115</v>
+        <v>0.0706108568901659</v>
       </c>
       <c r="G20">
-        <v>0.1673521482092027</v>
+        <v>0.2870801478588713</v>
       </c>
       <c r="H20">
-        <v>0.02008470740444318</v>
+        <v>0.03445381988262193</v>
       </c>
       <c r="I20">
-        <v>1.040677066827659</v>
+        <v>1.785204010914468</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -959,28 +959,28 @@
         <v>2024101608</v>
       </c>
       <c r="B21">
-        <v>0.7306339801135574</v>
+        <v>1.253348183971396</v>
       </c>
       <c r="C21">
-        <v>0.00595584</v>
+        <v>0.0102168</v>
       </c>
       <c r="D21">
-        <v>0.03065327677362728</v>
+        <v>0.05258341361433402</v>
       </c>
       <c r="E21">
-        <v>0.06917020021553127</v>
+        <v>0.1186563274973875</v>
       </c>
       <c r="F21">
-        <v>0.03589735288088476</v>
+        <v>0.06157923566002835</v>
       </c>
       <c r="G21">
-        <v>0.155810620746499</v>
+        <v>0.2672815169720525</v>
       </c>
       <c r="H21">
-        <v>0.02008470740444318</v>
+        <v>0.03445381988262193</v>
       </c>
       <c r="I21">
-        <v>1.048205978134543</v>
+        <v>1.79811929759782</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -988,28 +988,28 @@
         <v>2024101609</v>
       </c>
       <c r="B22">
-        <v>0.5710263830652526</v>
+        <v>0.9795532369071484</v>
       </c>
       <c r="C22">
-        <v>0.00379008</v>
+        <v>0.006501599999999999</v>
       </c>
       <c r="D22">
-        <v>0.04291458748307816</v>
+        <v>0.07361677906006758</v>
       </c>
       <c r="E22">
-        <v>0.06917020021553127</v>
+        <v>0.1186563274973875</v>
       </c>
       <c r="F22">
-        <v>0.04211956071357144</v>
+        <v>0.07225296984109994</v>
       </c>
       <c r="G22">
-        <v>0.1962059668659618</v>
+        <v>0.3365767250759182</v>
       </c>
       <c r="H22">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I22">
-        <v>0.9419640345137648</v>
+        <v>1.615869154950473</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1017,28 +1017,28 @@
         <v>2024101610</v>
       </c>
       <c r="B23">
-        <v>0.402516370245328</v>
+        <v>0.690486858532545</v>
       </c>
       <c r="C23">
-        <v>0.009204480000000001</v>
+        <v>0.0157896</v>
       </c>
       <c r="D23">
-        <v>0.0352512682896713</v>
+        <v>0.06047092565648409</v>
       </c>
       <c r="E23">
-        <v>0.02660392315981972</v>
+        <v>0.04563704903745673</v>
       </c>
       <c r="F23">
-        <v>0.05169218814847404</v>
+        <v>0.08867409935044078</v>
       </c>
       <c r="G23">
-        <v>0.1933205850002858</v>
+        <v>0.331627067354214</v>
       </c>
       <c r="H23">
-        <v>0.02008470740444318</v>
+        <v>0.03445381988262193</v>
       </c>
       <c r="I23">
-        <v>0.7386735222480221</v>
+        <v>1.267139419813762</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1046,28 +1046,28 @@
         <v>2024101611</v>
       </c>
       <c r="B24">
-        <v>0.4101470123352871</v>
+        <v>0.7035766567985642</v>
       </c>
       <c r="C24">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D24">
-        <v>0.04138192364439682</v>
+        <v>0.07098760837935099</v>
       </c>
       <c r="E24">
-        <v>0.03990588473972957</v>
+        <v>0.06845557355618506</v>
       </c>
       <c r="F24">
-        <v>0.047863137174513</v>
+        <v>0.08210564754670456</v>
       </c>
       <c r="G24">
-        <v>0.1731229119405543</v>
+        <v>0.2969794633022809</v>
       </c>
       <c r="H24">
-        <v>0.01004235370222159</v>
+        <v>0.01722690994131097</v>
       </c>
       <c r="I24">
-        <v>0.7257118635367024</v>
+        <v>1.244904659524397</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1075,28 +1075,28 @@
         <v>2024101612</v>
       </c>
       <c r="B25">
-        <v>0.3859833123837509</v>
+        <v>0.6621256289561688</v>
       </c>
       <c r="C25">
-        <v>0.007038720000000001</v>
+        <v>0.0120744</v>
       </c>
       <c r="D25">
-        <v>0.02758794909626453</v>
+        <v>0.04732507225290059</v>
       </c>
       <c r="E25">
-        <v>0.03458510010776564</v>
+        <v>0.05932816374869375</v>
       </c>
       <c r="F25">
-        <v>0.03015377641994321</v>
+        <v>0.05172655795442382</v>
       </c>
       <c r="G25">
-        <v>0.1269568020897399</v>
+        <v>0.2177849397550059</v>
       </c>
       <c r="H25">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I25">
-        <v>0.6190005625656119</v>
+        <v>1.061849369294734</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1104,28 +1104,28 @@
         <v>2024101613</v>
       </c>
       <c r="B26">
-        <v>0.4463925622625913</v>
+        <v>0.7657531985621586</v>
       </c>
       <c r="C26">
-        <v>0.00379008</v>
+        <v>0.006501599999999999</v>
       </c>
       <c r="D26">
-        <v>0.04291458748307816</v>
+        <v>0.07361677906006758</v>
       </c>
       <c r="E26">
-        <v>0.02926431547580169</v>
+        <v>0.05020075394120239</v>
       </c>
       <c r="F26">
-        <v>0.04690587443102275</v>
+        <v>0.08046353459577046</v>
       </c>
       <c r="G26">
-        <v>0.1413837114181194</v>
+        <v>0.2425332283635293</v>
       </c>
       <c r="H26">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I26">
-        <v>0.7273883872409826</v>
+        <v>1.24778061109158</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1133,28 +1133,28 @@
         <v>2024101614</v>
       </c>
       <c r="B27">
-        <v>0.4324030517643337</v>
+        <v>0.741755235074456</v>
       </c>
       <c r="C27">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D27">
-        <v>0.03371860445098997</v>
+        <v>0.05784175497576741</v>
       </c>
       <c r="E27">
-        <v>0.02660392315981972</v>
+        <v>0.04563704903745673</v>
       </c>
       <c r="F27">
-        <v>0.0287178823047078</v>
+        <v>0.04926338852802271</v>
       </c>
       <c r="G27">
-        <v>0.1529252388808231</v>
+        <v>0.262331859250348</v>
       </c>
       <c r="H27">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I27">
-        <v>0.685395123028822</v>
+        <v>1.175744293493591</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1162,28 +1162,28 @@
         <v>2024101615</v>
       </c>
       <c r="B28">
-        <v>0.4769151306224272</v>
+        <v>0.8181123916262376</v>
       </c>
       <c r="C28">
-        <v>0.00595584</v>
+        <v>0.0102168</v>
       </c>
       <c r="D28">
-        <v>0.05670856203121043</v>
+        <v>0.09727931518651786</v>
       </c>
       <c r="E28">
-        <v>0.04522666937169353</v>
+        <v>0.0775829833636764</v>
       </c>
       <c r="F28">
-        <v>0.04259819208531657</v>
+        <v>0.07307402631656697</v>
       </c>
       <c r="G28">
-        <v>0.1356129476867678</v>
+        <v>0.23263391292012</v>
       </c>
       <c r="H28">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I28">
-        <v>0.7764071467337109</v>
+        <v>1.3318686426682</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1191,28 +1191,28 @@
         <v>2024101616</v>
       </c>
       <c r="B29">
-        <v>0.6842142407329744</v>
+        <v>1.173718577853108</v>
       </c>
       <c r="C29">
-        <v>0.006497280000000003</v>
+        <v>0.0111456</v>
       </c>
       <c r="D29">
-        <v>0.06283921738593591</v>
+        <v>0.1077959979093847</v>
       </c>
       <c r="E29">
-        <v>0.05320784631963944</v>
+        <v>0.09127409807491346</v>
       </c>
       <c r="F29">
-        <v>0.04546998031578735</v>
+        <v>0.0780003651693693</v>
       </c>
       <c r="G29">
-        <v>0.09233221970162905</v>
+        <v>0.1583890470945498</v>
       </c>
       <c r="H29">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I29">
-        <v>0.9612980406263356</v>
+        <v>1.649035202670177</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1220,28 +1220,28 @@
         <v>2024101617</v>
       </c>
       <c r="B30">
-        <v>0.7757819458124811</v>
+        <v>1.330796157045348</v>
       </c>
       <c r="C30">
-        <v>0.007580160000000001</v>
+        <v>0.0130032</v>
       </c>
       <c r="D30">
-        <v>0.06130655354725456</v>
+        <v>0.105166827228668</v>
       </c>
       <c r="E30">
-        <v>0.06118902326758539</v>
+        <v>0.1049652127861504</v>
       </c>
       <c r="F30">
-        <v>0.02967514504819805</v>
+        <v>0.05090550147895679</v>
       </c>
       <c r="G30">
-        <v>0.06636378291054586</v>
+        <v>0.1138421275992077</v>
       </c>
       <c r="H30">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I30">
-        <v>1.018633866756434</v>
+        <v>1.747390542707182</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,28 +1249,28 @@
         <v>2024101618</v>
       </c>
       <c r="B31">
-        <v>0.7274545459094084</v>
+        <v>1.247894101360556</v>
       </c>
       <c r="C31">
-        <v>0.005414399999999999</v>
+        <v>0.009288000000000003</v>
       </c>
       <c r="D31">
-        <v>0.06590454506329869</v>
+        <v>0.1130543392708181</v>
       </c>
       <c r="E31">
-        <v>0.08513255411142315</v>
+        <v>0.1460385569198616</v>
       </c>
       <c r="F31">
-        <v>0.02297430584376624</v>
+        <v>0.03941071082241815</v>
       </c>
       <c r="G31">
-        <v>0.1067591290300086</v>
+        <v>0.1831373357030733</v>
       </c>
       <c r="H31">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I31">
-        <v>1.020334382426053</v>
+        <v>1.750307650704268</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1278,25 +1278,25 @@
         <v>2024101619</v>
       </c>
       <c r="B32">
-        <v>0.462925620124169</v>
+        <v>0.7941144281385353</v>
       </c>
       <c r="C32">
-        <v>0.004331520000000001</v>
+        <v>0.007430399999999997</v>
       </c>
       <c r="D32">
-        <v>0.06283921738593591</v>
+        <v>0.1077959979093847</v>
       </c>
       <c r="E32">
-        <v>0.07183059253151323</v>
+        <v>0.1232200324011331</v>
       </c>
       <c r="F32">
-        <v>0.02010251761329545</v>
+        <v>0.03448437196961589</v>
       </c>
       <c r="G32">
-        <v>0.1211860383583881</v>
+        <v>0.2078856243115964</v>
       </c>
       <c r="I32">
-        <v>0.7432155060133017</v>
+        <v>1.274930854730266</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1304,25 +1304,25 @@
         <v>2024101620</v>
       </c>
       <c r="B33">
-        <v>0.2925079467817551</v>
+        <v>0.5017756001974257</v>
       </c>
       <c r="C33">
-        <v>0.006497280000000003</v>
+        <v>0.0111456</v>
       </c>
       <c r="D33">
-        <v>0.0321859406123086</v>
+        <v>0.05521258429505067</v>
       </c>
       <c r="E33">
-        <v>0.08513255411142315</v>
+        <v>0.1460385569198616</v>
       </c>
       <c r="F33">
-        <v>0.01100852155013799</v>
+        <v>0.01888429893574202</v>
       </c>
       <c r="G33">
-        <v>0.1038737471643327</v>
+        <v>0.1781876779813685</v>
       </c>
       <c r="I33">
-        <v>0.5312059902199575</v>
+        <v>0.9112443183294485</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1330,28 +1330,28 @@
         <v>2024101621</v>
       </c>
       <c r="B34">
-        <v>0.247359981082832</v>
+        <v>0.4243276271234753</v>
       </c>
       <c r="C34">
-        <v>0.00379008</v>
+        <v>0.006501599999999999</v>
       </c>
       <c r="D34">
-        <v>0.01532663838681364</v>
+        <v>0.02629170680716701</v>
       </c>
       <c r="E34">
-        <v>0.02660392315981972</v>
+        <v>0.04563704903745673</v>
       </c>
       <c r="F34">
-        <v>0.0095726274349026</v>
+        <v>0.01642112950934091</v>
       </c>
       <c r="G34">
-        <v>0.0894468378359531</v>
+        <v>0.1534393893728451</v>
       </c>
       <c r="H34">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I34">
-        <v>0.395447539134395</v>
+        <v>0.6783608051640554</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1359,28 +1359,28 @@
         <v>2024101622</v>
       </c>
       <c r="B35">
-        <v>0.19585314697561</v>
+        <v>0.3359714888278418</v>
       </c>
       <c r="C35">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D35">
-        <v>0.01685930222549499</v>
+        <v>0.0289208774878837</v>
       </c>
       <c r="E35">
-        <v>0.0372454924237476</v>
+        <v>0.0638918686524394</v>
       </c>
       <c r="F35">
-        <v>0.01244441566537338</v>
+        <v>0.02134746836214316</v>
       </c>
       <c r="G35">
-        <v>0.09521760156730488</v>
+        <v>0.1633387048162545</v>
       </c>
       <c r="H35">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I35">
-        <v>0.3658403700916046</v>
+        <v>0.6275719114603329</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1388,25 +1388,25 @@
         <v>2024101623</v>
       </c>
       <c r="B36">
-        <v>0.1011060076919545</v>
+        <v>0.1734398270247625</v>
       </c>
       <c r="C36">
-        <v>0.00379008</v>
+        <v>0.006501599999999999</v>
       </c>
       <c r="D36">
-        <v>0.009195983032088191</v>
+        <v>0.01577502408430019</v>
       </c>
       <c r="E36">
-        <v>0.0186227462118738</v>
+        <v>0.0319459343262197</v>
       </c>
       <c r="F36">
-        <v>0.005743576460941559</v>
+        <v>0.009852677705604537</v>
       </c>
       <c r="G36">
-        <v>0.04616610985081453</v>
+        <v>0.07919452354727488</v>
       </c>
       <c r="I36">
-        <v>0.1846245032476726</v>
+        <v>0.3167095866881618</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1414,28 +1414,28 @@
         <v>2024101700</v>
       </c>
       <c r="B37">
-        <v>0.06168102356050058</v>
+        <v>0.1058092026503268</v>
       </c>
       <c r="C37">
-        <v>0.004872959999999999</v>
+        <v>0.008359199999999999</v>
       </c>
       <c r="D37">
-        <v>0.003065327677362726</v>
+        <v>0.005258341361433395</v>
       </c>
       <c r="E37">
-        <v>0.01330196157990986</v>
+        <v>0.02281852451872837</v>
       </c>
       <c r="F37">
-        <v>0.006222207832686688</v>
+        <v>0.01067373418107158</v>
       </c>
       <c r="G37">
-        <v>0.02885381865675905</v>
+        <v>0.04949657721704682</v>
       </c>
       <c r="H37">
-        <v>0.003347451234073864</v>
+        <v>0.005742303313770321</v>
       </c>
       <c r="I37">
-        <v>0.1213447505412928</v>
+        <v>0.2081578832423772</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1443,25 +1443,25 @@
         <v>2024101701</v>
       </c>
       <c r="B38">
-        <v>0.02988668151900545</v>
+        <v>0.05126837654191088</v>
       </c>
       <c r="C38">
-        <v>0.005414399999999999</v>
+        <v>0.009288000000000003</v>
       </c>
       <c r="D38">
-        <v>0.003065327677362726</v>
+        <v>0.005258341361433395</v>
       </c>
       <c r="E38">
-        <v>0.01330196157990986</v>
+        <v>0.02281852451872837</v>
       </c>
       <c r="F38">
-        <v>0.00430768234570617</v>
+        <v>0.007389508279203403</v>
       </c>
       <c r="G38">
-        <v>0.03173920052243497</v>
+        <v>0.05444623493875148</v>
       </c>
       <c r="I38">
-        <v>0.08771525364441918</v>
+        <v>0.1504689856400275</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1469,19 +1469,19 @@
         <v>2024101702</v>
       </c>
       <c r="B39">
-        <v>0.02289192626987648</v>
+        <v>0.03926939479805937</v>
       </c>
       <c r="C39">
-        <v>0.001624320000000001</v>
+        <v>0.0027864</v>
       </c>
       <c r="F39">
-        <v>0.00239315685872565</v>
+        <v>0.004105282377335227</v>
       </c>
       <c r="G39">
-        <v>0.03173920052243497</v>
+        <v>0.05444623493875148</v>
       </c>
       <c r="I39">
-        <v>0.05864860365103709</v>
+        <v>0.1006073121141461</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1489,22 +1489,22 @@
         <v>2024101703</v>
       </c>
       <c r="B40">
-        <v>0.02225603942904658</v>
+        <v>0.03817857827589106</v>
       </c>
       <c r="C40">
-        <v>0.002165760000000001</v>
+        <v>0.003715199999999998</v>
       </c>
       <c r="E40">
-        <v>0.005320784631963947</v>
+        <v>0.009127409807491348</v>
       </c>
       <c r="F40">
-        <v>0.00430768234570617</v>
+        <v>0.007389508279203403</v>
       </c>
       <c r="G40">
-        <v>0.06059301917919407</v>
+        <v>0.1039428121557982</v>
       </c>
       <c r="I40">
-        <v>0.09464328558591077</v>
+        <v>0.162353508518384</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1512,25 +1512,25 @@
         <v>2024101704</v>
       </c>
       <c r="B41">
-        <v>0.0489632867439025</v>
+        <v>0.08399287220696044</v>
       </c>
       <c r="C41">
-        <v>0.00108288</v>
+        <v>0.001857599999999999</v>
       </c>
       <c r="D41">
-        <v>0.006130655354725452</v>
+        <v>0.01051668272286679</v>
       </c>
       <c r="E41">
-        <v>0.01064156926392789</v>
+        <v>0.0182548196149827</v>
       </c>
       <c r="F41">
-        <v>0.008615364691412339</v>
+        <v>0.01477901655840681</v>
       </c>
       <c r="G41">
-        <v>0.1154152746270362</v>
+        <v>0.1979863088681873</v>
       </c>
       <c r="I41">
-        <v>0.1908490306810044</v>
+        <v>0.327387299971404</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1538,28 +1538,28 @@
         <v>2024101705</v>
       </c>
       <c r="B42">
-        <v>0.1087366497819133</v>
+        <v>0.1865296252907822</v>
       </c>
       <c r="C42">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D42">
-        <v>0.01379397454813226</v>
+        <v>0.0236625361264503</v>
       </c>
       <c r="E42">
-        <v>0.0372454924237476</v>
+        <v>0.0638918686524394</v>
       </c>
       <c r="F42">
-        <v>0.01196578429362825</v>
+        <v>0.02052641188667614</v>
       </c>
       <c r="G42">
-        <v>0.1471544751494714</v>
+        <v>0.2524325438069381</v>
       </c>
       <c r="H42">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I42">
-        <v>0.3288399186650405</v>
+        <v>0.5641003923908268</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1567,25 +1567,25 @@
         <v>2024101706</v>
       </c>
       <c r="B43">
-        <v>0.3618196124322144</v>
+        <v>0.6206746011137717</v>
       </c>
       <c r="C43">
-        <v>0.002707199999999999</v>
+        <v>0.004644000000000001</v>
       </c>
       <c r="D43">
-        <v>0.01839196606417638</v>
+        <v>0.03155004816860038</v>
       </c>
       <c r="E43">
-        <v>0.1197176542191888</v>
+        <v>0.2053667206685553</v>
       </c>
       <c r="F43">
-        <v>0.03111103916343344</v>
+        <v>0.05336867090535793</v>
       </c>
       <c r="G43">
-        <v>0.2250597855227206</v>
+        <v>0.3860733022929652</v>
       </c>
       <c r="I43">
-        <v>0.7588072574017337</v>
+        <v>1.301677343149251</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1593,28 +1593,28 @@
         <v>2024101707</v>
       </c>
       <c r="B44">
-        <v>0.654327559213969</v>
+        <v>1.122450201311198</v>
       </c>
       <c r="C44">
-        <v>0.003248640000000001</v>
+        <v>0.0055728</v>
       </c>
       <c r="D44">
-        <v>0.0459799151604409</v>
+        <v>0.07887512042150105</v>
       </c>
       <c r="E44">
-        <v>0.09577412337535104</v>
+        <v>0.1642933765348442</v>
       </c>
       <c r="F44">
-        <v>0.0382905097396104</v>
+        <v>0.06568451803736364</v>
       </c>
       <c r="G44">
-        <v>0.2048621124629894</v>
+        <v>0.3514256982410325</v>
       </c>
       <c r="H44">
-        <v>0.02008470740444318</v>
+        <v>0.03445381988262193</v>
       </c>
       <c r="I44">
-        <v>1.062567567356804</v>
+        <v>1.822755534428561</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1622,28 +1622,28 @@
         <v>2024101708</v>
       </c>
       <c r="B45">
-        <v>0.7160085827744701</v>
+        <v>1.228259403961524</v>
       </c>
       <c r="C45">
-        <v>0.005414399999999999</v>
+        <v>0.009288000000000003</v>
       </c>
       <c r="D45">
-        <v>0.04291458748307816</v>
+        <v>0.07361677906006758</v>
       </c>
       <c r="E45">
-        <v>0.06384941558356737</v>
+        <v>0.1095289176898962</v>
       </c>
       <c r="F45">
-        <v>0.03063240779168832</v>
+        <v>0.05254761442989086</v>
       </c>
       <c r="G45">
-        <v>0.1500398570151472</v>
+        <v>0.2573822015286434</v>
       </c>
       <c r="H45">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I45">
-        <v>1.022249055584247</v>
+        <v>1.753592129925104</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1651,28 +1651,28 @@
         <v>2024101709</v>
       </c>
       <c r="B46">
-        <v>0.539232041023757</v>
+        <v>0.9250124107987332</v>
       </c>
       <c r="C46">
-        <v>0.0081216</v>
+        <v>0.01393199999999999</v>
       </c>
       <c r="D46">
-        <v>0.04444725132175955</v>
+        <v>0.07624594974078437</v>
       </c>
       <c r="E46">
-        <v>0.05852863095160338</v>
+        <v>0.1004015078824048</v>
       </c>
       <c r="F46">
-        <v>0.03685461562437502</v>
+        <v>0.06322134861096249</v>
       </c>
       <c r="G46">
-        <v>0.2077474943286653</v>
+        <v>0.3563753559627371</v>
       </c>
       <c r="H46">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I46">
-        <v>0.9083214381864556</v>
+        <v>1.558157786250703</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1680,28 +1680,28 @@
         <v>2024101710</v>
       </c>
       <c r="B47">
-        <v>0.4082393518127975</v>
+        <v>0.7003042072320591</v>
       </c>
       <c r="C47">
-        <v>0.005414399999999999</v>
+        <v>0.009288000000000003</v>
       </c>
       <c r="D47">
-        <v>0.04291458748307816</v>
+        <v>0.07361677906006758</v>
       </c>
       <c r="E47">
-        <v>0.04256627705571157</v>
+        <v>0.07301927845993078</v>
       </c>
       <c r="F47">
-        <v>0.04546998031578735</v>
+        <v>0.0780003651693693</v>
       </c>
       <c r="G47">
-        <v>0.2048621124629894</v>
+        <v>0.3514256982410325</v>
       </c>
       <c r="H47">
-        <v>0.01673725617036932</v>
+        <v>0.02871151656885162</v>
       </c>
       <c r="I47">
-        <v>0.7662039653007333</v>
+        <v>1.314365844731311</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1709,28 +1709,28 @@
         <v>2024101711</v>
       </c>
       <c r="B48">
-        <v>0.3967933886778592</v>
+        <v>0.68066950983303</v>
       </c>
       <c r="C48">
-        <v>0.00379008</v>
+        <v>0.006501599999999999</v>
       </c>
       <c r="D48">
-        <v>0.03371860445098997</v>
+        <v>0.05784175497576741</v>
       </c>
       <c r="E48">
-        <v>0.04522666937169353</v>
+        <v>0.0775829833636764</v>
       </c>
       <c r="F48">
-        <v>0.04355545482880685</v>
+        <v>0.07471613926750113</v>
       </c>
       <c r="G48">
-        <v>0.1471544751494714</v>
+        <v>0.2524325438069381</v>
       </c>
       <c r="H48">
-        <v>0.01338980493629546</v>
+        <v>0.02296921325508128</v>
       </c>
       <c r="I48">
-        <v>0.6836284774151165</v>
+        <v>1.172713744501994</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1738,28 +1738,28 @@
         <v>2024101712</v>
       </c>
       <c r="B49">
-        <v>0.4095111254944573</v>
+        <v>0.7024858402763958</v>
       </c>
       <c r="C49">
-        <v>0.008663040000000002</v>
+        <v>0.01486079999999999</v>
       </c>
       <c r="D49">
-        <v>0.03371860445098997</v>
+        <v>0.05784175497576741</v>
       </c>
       <c r="E49">
-        <v>0.03458510010776564</v>
+        <v>0.05932816374869375</v>
       </c>
       <c r="F49">
-        <v>0.03589735288088476</v>
+        <v>0.06157923566002835</v>
       </c>
       <c r="G49">
-        <v>0.1183006564927121</v>
+        <v>0.2029359665898918</v>
       </c>
       <c r="H49">
-        <v>0.006694902468147728</v>
+        <v>0.01148460662754064</v>
       </c>
       <c r="I49">
-        <v>0.6473707818949577</v>
+        <v>1.110516367878318</v>
       </c>
     </row>
   </sheetData>
